--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E974632-7FD7-49AB-ABEC-F1DF4819955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BA53BD-8AF1-4985-AB3B-C8CBFC4E793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,13 +3581,13 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,15 +3619,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>2284983948</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,7 +3676,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
         <v>257</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -4238,7 +4240,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2049576772201034E-2</v>
+        <v>6.7658999869208538E-3</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4715,11 +4717,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4733,10 +4735,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4931,7 +4933,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4967,8 +4969,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5011,17 +5013,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.73</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5031,40 +5033,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>3953.0222300400001</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>33772.062141283459</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5087,11 +5089,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5111,7 +5113,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5278,7 +5280,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43409325404310661</v>
+        <v>3.9810376661066353</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5296,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-3.9926942835494604E-2</v>
+        <v>-4.3536429426459739E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5326,7 +5328,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2049576772201034E-2</v>
+        <v>6.7658999869208538E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5345,10 +5347,10 @@
       <c r="F28" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="270" t="s">
+      <c r="G28" s="271" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="270"/>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5356,22 +5358,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85134601063259385</v>
+        <v>0.60707131670564307</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6364407851191773</v>
+        <v>1.166900707498401</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0015835419206987</v>
-      </c>
-      <c r="G29" s="271">
+        <v>0.7142015490654624</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4229919870601544</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>1.014696267389914</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6402,12 +6404,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -10468,11 +10467,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6280149.4471167745</v>
+        <v>5850393.1500000004</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25969840416737744</v>
+        <v>0.31035791080073138</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10493,7 +10492,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9503378568128085</v>
+        <v>2.5603650980221242</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11595,11 +11594,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11610,11 +11609,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11626,11 +11625,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11844,19 +11843,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11866,18 +11865,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12244,17 +12243,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9926942835494604E-2</v>
+        <v>-4.3536429426459739E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9926942835494604E-2</v>
+        <v>-4.3536429426459739E-3</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9926942835494604E-2</v>
+        <v>-4.3536429426459739E-3</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12295,17 +12294,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2049576772201034E-2</v>
+        <v>6.7658999869208538E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2049576772201034E-2</v>
+        <v>6.7658999869208538E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2049576772201034E-2</v>
+        <v>6.7658999869208538E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12336,15 +12335,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12365,14 +12364,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.78253014255373488</v>
+        <v>-0.87442040440625535</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.78253014255373488</v>
+        <v>-0.87442040440625535</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12390,14 +12389,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0145422559239043</v>
+        <v>1.4365144190364512</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0145422559239043</v>
+        <v>1.4365144190364512</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12440,21 +12439,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-888986.2157123381</v>
+        <v>-993377.3077647168</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.3890557815473713</v>
+        <v>-0.43474148194091239</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.3890557815473713</v>
+        <v>-0.43474148194091239</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.55274796009494409</v>
+        <v>-0.61765556176995962</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12482,17 +12481,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5072712.8183991704</v>
+        <v>4725582.5</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8870180245306891</v>
+        <v>1.7578876772923393</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2200212053302226</v>
+        <v>2.0681031497556934</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12503,27 +12502,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4183726.6026868322</v>
+        <v>3732205.1922352831</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4147942583756217</v>
+        <v>1.2565158418456384</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4979622429833177</v>
+        <v>1.323146195351427</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6644638333830843</v>
+        <v>1.478253931583104</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8309654237828512</v>
+        <v>1.6333616678147811</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6672732452352785</v>
+        <v>1.4504475879857339</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12563,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2288602.3158697817</v>
+        <v>1631939.0752513162</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85134601063259385</v>
+        <v>0.60707131670564307</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0015835419206987</v>
+        <v>0.7142015490654624</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0015835419206987</v>
+        <v>0.7142015490654624</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0015835419206987</v>
+        <v>0.7142015490654624</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4229919870601544</v>
+        <v>1.014696267389914</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12625,27 +12624,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2855710.9978983686</v>
+        <v>2327653.4462432996</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1330701345041079</v>
+        <v>0.93179357927564066</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2497728924520082</v>
+        <v>1.0186738722084447</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3330236876518915</v>
+        <v>1.0962277403242833</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.416274482851775</v>
+        <v>1.1737816084401218</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5451326161477166</v>
+        <v>1.232571927687824</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BA53BD-8AF1-4985-AB3B-C8CBFC4E793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7972A64E-6BBD-4897-AD95-61EF0F72CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>2284983948</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>263</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>264</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3704,7 +3708,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>265</v>
@@ -3713,7 +3717,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3722,16 +3726,16 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>266</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3896,7 +3900,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>8305</v>
@@ -4218,7 +4222,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.1</v>
@@ -4236,11 +4240,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7658999869208538E-3</v>
+        <v>6.390617007300968E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4285,13 +4289,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4679,7 +4683,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>8486660</v>
@@ -4699,7 +4703,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4707,7 +4711,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4717,16 +4721,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4735,10 +4739,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4787,7 +4791,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4808,7 +4812,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4826,7 +4830,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4883,7 +4887,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4970,7 +4974,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5011,19 +5015,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>1.68</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5031,42 +5035,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>33772.062141283459</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>3838.7730326399997</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5089,16 +5093,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5113,7 +5117,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5123,40 +5127,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5169,29 +5173,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5201,12 +5205,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5216,7 +5220,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5224,7 +5228,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5238,7 +5242,7 @@
         <v>0.39325092997635303</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5246,7 +5250,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5257,14 +5261,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,11 +5280,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.9810376661066353</v>
+        <v>0.42148203627709258</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5292,16 +5296,16 @@
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-4.3536429426459739E-3</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>-24.318118743867512</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5324,11 +5328,11 @@
         <v>-0.22591626294706857</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7658999869208538E-3</v>
+        <v>6.390617007300968E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5345,12 +5349,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5358,42 +5362,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.60707131670564307</v>
+        <v>0.85894615102487837</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.166900707498401</v>
+        <v>1.6510496275348767</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.7142015490654624</v>
-      </c>
-      <c r="G29" s="272">
+        <v>1.0105248835586804</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.014696267389914</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>1.4356953282911973</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5403,7 +5407,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5414,14 +5418,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5431,7 +5435,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5441,14 +5445,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5458,7 +5462,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5473,14 +5477,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6465,16 +6469,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6492,7 +6496,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6525,7 +6529,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6892,7 +6896,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6943,7 +6947,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6994,7 +6998,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7045,7 +7049,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7147,7 +7151,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7300,7 +7304,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8371,7 +8375,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8440,7 +8444,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8644,7 +8648,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10467,11 +10471,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>5850393.1500000004</v>
+        <v>6281120.4899162296</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.31035791080073138</v>
+        <v>0.25958393801651403</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10492,7 +10496,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.5603650980221242</v>
+        <v>2.9512502955511182</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10542,7 +10546,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11594,11 +11598,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11609,11 +11613,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11625,11 +11629,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11843,19 +11847,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11865,18 +11869,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11953,7 +11957,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12013,7 +12017,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12076,7 +12080,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12106,7 +12110,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12239,28 +12243,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.3536429426459739E-3</v>
+        <v>-4.1121601984618061E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.3536429426459739E-3</v>
+        <v>-4.1121601984618061E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.3536429426459739E-3</v>
+        <v>-4.1121601984618061E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12290,21 +12294,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7658999869208538E-3</v>
+        <v>6.390617007300968E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7658999869208538E-3</v>
+        <v>6.390617007300968E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7658999869208538E-3</v>
+        <v>6.390617007300968E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12335,15 +12339,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12360,24 +12364,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.87442040440625535</v>
+        <v>-0.7777938134296225</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.87442040440625535</v>
+        <v>-0.7777938134296225</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12385,18 +12389,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>1.4365144190364512</v>
+        <v>2.0325264876933518</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>1.4365144190364512</v>
+        <v>2.0325264876933518</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12415,14 +12419,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12439,21 +12443,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-993377.3077647168</v>
+        <v>-883605.55230342189</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.43474148194091239</v>
+        <v>-0.3867009888961469</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.43474148194091239</v>
+        <v>-0.3867009888961469</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.61765556176995962</v>
+        <v>-0.54940240684488306</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12481,17 +12485,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>4725582.5</v>
+        <v>5073497.1661758423</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.7578876772923393</v>
+        <v>1.887309797088109</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.0681031497556934</v>
+        <v>2.2203644671624811</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12502,27 +12506,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3732205.1922352831</v>
+        <v>4189891.6138724205</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.2565158418456384</v>
+        <v>1.4170657217447757</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.323146195351427</v>
+        <v>1.500608808191962</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.478253931583104</v>
+        <v>1.667136143229148</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.6333616678147811</v>
+        <v>1.8336634782663341</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.4504475879857339</v>
+        <v>1.6709620603175981</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12539,14 +12543,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12563,27 +12567,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1631939.0752513162</v>
+        <v>2309033.1379861543</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.60707131670564307</v>
+        <v>0.85894615102487837</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.7142015490654624</v>
+        <v>1.0105248835586804</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.7142015490654624</v>
+        <v>1.0105248835586804</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.7142015490654624</v>
+        <v>1.0105248835586804</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.014696267389914</v>
+        <v>1.4356953282911973</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12593,21 +12597,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12620,31 +12624,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2327653.4462432996</v>
+        <v>2868950.0884660995</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.93179357927564066</v>
+        <v>1.1380059363848272</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.0186738722084447</v>
+        <v>1.2555668458753213</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.0962277403242833</v>
+        <v>1.3388305133939142</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1737816084401218</v>
+        <v>1.4220941809125072</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.232571927687824</v>
+        <v>1.5533286943043976</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7972A64E-6BBD-4897-AD95-61EF0F72CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{637284F5-8B77-4D88-902E-32CD21462D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>2284983948</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>867764</v>
@@ -3828,7 +3829,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>341249</v>
@@ -3854,7 +3855,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>345571</v>
@@ -3880,7 +3881,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>365801</v>
@@ -3900,7 +3901,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>8305</v>
@@ -3926,7 +3927,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>2058</v>
@@ -3946,7 +3947,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-252904</v>
@@ -3966,7 +3967,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>134473</v>
@@ -3986,7 +3987,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>134337</v>
@@ -4006,7 +4007,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -4030,7 +4031,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4046,7 +4047,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4062,7 +4063,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4086,7 +4087,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4110,7 +4111,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4134,7 +4135,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4158,7 +4159,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4182,7 +4183,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4206,7 +4207,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4222,7 +4223,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.1</v>
@@ -4240,11 +4241,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.390617007300968E-2</v>
+        <v>6.26901576393529E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4289,21 +4290,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>4923071</v>
@@ -4315,7 +4316,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>163001</v>
@@ -4327,7 +4328,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>2576350</v>
@@ -4340,7 +4341,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>924658</v>
@@ -4352,7 +4353,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>43659</v>
@@ -4364,7 +4365,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4377,7 +4378,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -4389,7 +4390,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4400,7 +4401,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4408,24 +4409,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4436,7 +4437,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4447,7 +4448,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4458,7 +4459,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>98517</v>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4484,7 +4485,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4497,7 +4498,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -4509,7 +4510,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>232091</v>
@@ -4518,12 +4519,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4532,12 +4533,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4547,12 +4548,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>116537</v>
@@ -4565,7 +4566,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4578,7 +4579,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>306071</v>
@@ -4590,7 +4591,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>88298</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4613,7 +4614,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>270468</v>
@@ -4621,7 +4622,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>18682</v>
@@ -4629,19 +4630,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>959583</v>
@@ -4649,13 +4650,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>74975</v>
@@ -4663,19 +4664,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>75530</v>
@@ -4683,7 +4684,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>8486660</v>
@@ -4691,19 +4692,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4711,15 +4712,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4727,10 +4728,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4740,19 +4741,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4770,7 +4771,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4791,7 +4792,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4812,7 +4813,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4830,7 +4831,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4851,7 +4852,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4869,7 +4870,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4887,7 +4888,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -5015,7 +5016,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -5027,15 +5028,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -5044,7 +5045,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5055,7 +5056,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5064,11 +5065,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3838.7730326399997</v>
+        <v>3907.3225510799998</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5076,7 +5077,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5091,7 +5092,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5102,7 +5103,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5114,10 +5115,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0720016956329346</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5127,40 +5128,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5173,29 +5174,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5205,12 +5206,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5220,29 +5221,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.39325092997635303</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5250,7 +5251,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5261,58 +5262,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42148203627709258</v>
+        <v>0.42965760028866218</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.318118743867512</v>
+        <v>-24.789821733127848</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5321,61 +5322,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>-0.22591626294706857</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.390617007300968E-2</v>
+        <v>6.26901576393529E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85894615102487837</v>
+        <v>0.85275837078008232</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6510496275348767</v>
+        <v>1.639155596394219</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0105248835586804</v>
+        <v>1.0032451420942146</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4356953282911973</v>
+        <v>1.4253526925167124</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5383,21 +5384,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5407,7 +5408,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5418,14 +5419,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5435,7 +5436,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5445,14 +5446,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5462,7 +5463,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5477,14 +5478,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6464,21 +6465,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6489,14 +6490,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6518,7 +6519,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6529,7 +6530,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6540,7 +6541,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6590,7 +6591,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6641,7 +6642,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6692,7 +6693,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6743,7 +6744,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6794,7 +6795,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6845,7 +6846,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6896,7 +6897,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6947,7 +6948,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6998,7 +6999,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7049,7 +7050,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7100,7 +7101,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7151,7 +7152,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7202,7 +7203,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7253,7 +7254,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7304,7 +7305,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7355,7 +7356,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7406,7 +7407,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7457,7 +7458,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7508,7 +7509,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7559,7 +7560,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7610,7 +7611,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7661,7 +7662,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7712,7 +7713,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7763,7 +7764,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7814,7 +7815,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7865,7 +7866,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7916,7 +7917,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7967,7 +7968,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -8018,7 +8019,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8069,7 +8070,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8120,7 +8121,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8171,7 +8172,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8222,7 +8223,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8273,7 +8274,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8324,7 +8325,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8375,7 +8376,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8393,7 +8394,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8444,7 +8445,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8495,7 +8496,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8546,7 +8547,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8597,7 +8598,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8648,7 +8649,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8699,7 +8700,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8750,7 +8751,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8768,7 +8769,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8819,7 +8820,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8870,7 +8871,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8887,7 +8888,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8937,7 +8938,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8987,7 +8988,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -9037,7 +9038,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10396,7 +10397,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10406,12 +10407,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10425,7 +10426,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10435,7 +10436,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10453,10 +10454,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10466,21 +10467,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6281120.4899162296</v>
+        <v>6271631.3769193059</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25958393801651403</v>
+        <v>0.26070251099854458</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10491,19 +10492,19 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9512502955511182</v>
+        <v>2.9423399128588592</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10521,7 +10522,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10540,32 +10541,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10582,7 +10583,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10593,7 +10594,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10610,7 +10611,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10621,7 +10622,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10638,7 +10639,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10649,7 +10650,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10666,7 +10667,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10677,7 +10678,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10694,7 +10695,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10704,7 +10705,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10726,7 +10727,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10748,7 +10749,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10769,7 +10770,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10794,7 +10795,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10821,7 +10822,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10842,7 +10843,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10859,7 +10860,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10871,13 +10872,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10899,7 +10900,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10919,7 +10920,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10928,7 +10929,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10948,7 +10949,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10961,7 +10962,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10981,7 +10982,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10994,7 +10995,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -11011,7 +11012,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -11027,7 +11028,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11036,7 +11037,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11052,7 +11053,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11062,7 +11063,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11079,7 +11080,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11089,7 +11090,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11106,7 +11107,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11116,7 +11117,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11136,7 +11137,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11146,7 +11147,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11163,7 +11164,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11173,7 +11174,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11199,7 +11200,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11226,7 +11227,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11253,7 +11254,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11274,7 +11275,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11295,7 +11296,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11316,7 +11317,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11337,7 +11338,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11354,7 +11355,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11372,7 +11373,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11391,7 +11392,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11410,7 +11411,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11427,7 +11428,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11440,7 +11441,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11457,7 +11458,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11470,7 +11471,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11487,7 +11488,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11497,7 +11498,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11514,7 +11515,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11530,14 +11531,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11549,12 +11550,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11584,7 +11585,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11595,7 +11596,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11610,7 +11611,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11621,12 +11622,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11650,11 +11651,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11664,7 +11665,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11685,7 +11686,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11706,7 +11707,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11727,7 +11728,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11742,7 +11743,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11773,11 +11774,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11787,7 +11788,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11808,7 +11809,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11823,7 +11824,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11845,7 +11846,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11853,15 +11854,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11870,22 +11871,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11906,7 +11907,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11936,7 +11937,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11957,7 +11958,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11987,7 +11988,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12017,7 +12018,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12048,7 +12049,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12075,12 +12076,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12110,7 +12111,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12140,7 +12141,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12170,7 +12171,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12191,7 +12192,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12222,7 +12223,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12243,28 +12244,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1121601984618061E-2</v>
+        <v>-4.0339136390950776E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1121601984618061E-2</v>
+        <v>-4.0339136390950776E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1121601984618061E-2</v>
+        <v>-4.0339136390950776E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12294,21 +12295,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.390617007300968E-2</v>
+        <v>6.26901576393529E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.390617007300968E-2</v>
+        <v>6.26901576393529E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.390617007300968E-2</v>
+        <v>6.26901576393529E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12325,27 +12326,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12364,24 +12365,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.7777938134296225</v>
+        <v>-0.77979263711218694</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.7777938134296225</v>
+        <v>-0.77979263711218694</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12389,18 +12390,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0325264876933518</v>
+        <v>2.0178843273756568</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0325264876933518</v>
+        <v>2.0178843273756568</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12419,51 +12420,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-883605.55230342189</v>
+        <v>-885876.29767770262</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.3867009888961469</v>
+        <v>-0.38769475752908117</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.3867009888961469</v>
+        <v>-0.38769475752908117</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54940240684488306</v>
+        <v>-0.55081429586109576</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12481,52 +12482,52 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5073497.1661758423</v>
+        <v>5065832.452853322</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.887309797088109</v>
+        <v>1.8844585707896286</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2203644671624811</v>
+        <v>2.2170100832819162</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4189891.6138724205</v>
+        <v>4179956.1551756193</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4170657217447757</v>
+        <v>1.4135836340806873</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.500608808191962</v>
+        <v>1.4967638132605474</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.667136143229148</v>
+        <v>1.6630395695066911</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8336634782663341</v>
+        <v>1.829315325752835</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6709620603175981</v>
+        <v>1.6661957874208204</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12536,58 +12537,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2309033.1379861543</v>
+        <v>2292399.0455942592</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85894615102487837</v>
+        <v>0.85275837078008232</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0105248835586804</v>
+        <v>1.0032451420942146</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0105248835586804</v>
+        <v>1.0032451420942146</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0105248835586804</v>
+        <v>1.0032451420942146</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4356953282911973</v>
+        <v>1.4253526925167124</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,58 +12598,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2868950.0884660995</v>
+        <v>2856240.1664209394</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1380059363848272</v>
+        <v>1.1331710024303847</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2555668458753213</v>
+        <v>1.2500044776773809</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3388305133939142</v>
+        <v>1.3331423558004527</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4220941809125072</v>
+        <v>1.4162802339235248</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5533286943043976</v>
+        <v>1.5457742399687664</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12657,7 +12658,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{637284F5-8B77-4D88-902E-32CD21462D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF0278D-7539-43E2-904E-E00DC55C1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.26901576393529E-2</v>
+        <v>6.4215669612922605E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,7 +4938,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3907.3225510799998</v>
+        <v>3815.9231931599998</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0720016956329346</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42965760028866218</v>
+        <v>0.41945062405176442</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.789821733127848</v>
+        <v>-24.200912980723679</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.26901576393529E-2</v>
+        <v>6.4215669612922605E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85275837078008232</v>
+        <v>0.85921719625911053</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.639155596394219</v>
+        <v>1.651570625425711</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0032451420942146</v>
+        <v>1.0108437603048359</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4253526925167124</v>
+        <v>1.436148369935401</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6271631.3769193059</v>
+        <v>6273971.4575559627</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26070251099854458</v>
+        <v>0.26042666319519503</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10497,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9423399128588592</v>
+        <v>2.9445360231758815</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0339136390950776E-2</v>
+        <v>-4.1320755163101172E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0339136390950776E-2</v>
+        <v>-4.1320755163101172E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0339136390950776E-2</v>
+        <v>-4.1320755163101172E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.26901576393529E-2</v>
+        <v>6.4215669612922605E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.26901576393529E-2</v>
+        <v>6.4215669612922605E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.26901576393529E-2</v>
+        <v>6.4215669612922605E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.77979263711218694</v>
+        <v>-0.77610208501907507</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.77979263711218694</v>
+        <v>-0.77610208501907507</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12394,14 +12394,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0178843273756568</v>
+        <v>2.0331678627286585</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0178843273756568</v>
+        <v>2.0331678627286585</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12444,21 +12444,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-885876.29767770262</v>
+        <v>-881683.67970590421</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38769475752908117</v>
+        <v>-0.38585990088797956</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38769475752908117</v>
+        <v>-0.38585990088797956</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.55081429586109576</v>
+        <v>-0.54820743763268998</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12486,17 +12486,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5065832.452853322</v>
+        <v>5067722.6239617672</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8844585707896286</v>
+        <v>1.8851617028372676</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2170100832819162</v>
+        <v>2.2178372974556089</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12507,27 +12507,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4179956.1551756193</v>
+        <v>4186038.9442558629</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4135836340806873</v>
+        <v>1.4157936593696896</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4967638132605474</v>
+        <v>1.4993018019492881</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6630395695066911</v>
+        <v>1.6656395992584585</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.829315325752835</v>
+        <v>1.8319773965676291</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6661957874208204</v>
+        <v>1.6696298598229189</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12568,27 +12568,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2292399.0455942592</v>
+        <v>2309761.7662325096</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85275837078008232</v>
+        <v>0.85921719625911053</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0032451420942146</v>
+        <v>1.0108437603048359</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0032451420942146</v>
+        <v>1.0108437603048359</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0032451420942146</v>
+        <v>1.0108437603048359</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4253526925167124</v>
+        <v>1.436148369935401</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12629,27 +12629,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2856240.1664209394</v>
+        <v>2867821.1584470537</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1331710024303847</v>
+        <v>1.1375054278144001</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2500044776773809</v>
+        <v>1.2550727811270619</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3331423558004527</v>
+        <v>1.3382416797816472</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4162802339235248</v>
+        <v>1.4214105784362325</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5457742399687664</v>
+        <v>1.5528891148791599</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF0278D-7539-43E2-904E-E00DC55C1BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F02B0CD3-283C-42F1-8202-EE2393C0B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>3815.9231931599998</v>
+        <v>3838.7730326399997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41945062405176442</v>
+        <v>0.42192295416435543</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.200912980723679</v>
+        <v>-24.343558246897015</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85921719625911053</v>
+        <v>0.85777926309224628</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.651570625425711</v>
+        <v>1.648806658188954</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0108437603048359</v>
+        <v>1.0091520742261721</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.436148369935401</v>
+        <v>1.433744920164308</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6273971.4575559627</v>
+        <v>6274556.5939519946</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26042666319519503</v>
+        <v>0.26035768754240052</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10497,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9445360231758815</v>
+        <v>2.9450852878810823</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1320755163101172E-2</v>
+        <v>-4.1078629091844711E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1320755163101172E-2</v>
+        <v>-4.1078629091844711E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1320755163101172E-2</v>
+        <v>-4.1078629091844711E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.77610208501907507</v>
+        <v>-0.77715512410214194</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.77610208501907507</v>
+        <v>-0.77715512410214194</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12394,14 +12394,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0331678627286585</v>
+        <v>2.0297652777753443</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0331678627286585</v>
+        <v>2.0297652777753443</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12444,21 +12444,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-881683.67970590421</v>
+        <v>-882879.97513089294</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38585990088797956</v>
+        <v>-0.38638344742144026</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38585990088797956</v>
+        <v>-0.38638344742144026</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54820743763268998</v>
+        <v>-0.54895126227715152</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12486,17 +12486,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5067722.6239617672</v>
+        <v>5068195.2606277671</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8851617028372676</v>
+        <v>1.8853375207752667</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2178372974556089</v>
+        <v>2.2180441420885493</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12507,27 +12507,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4186038.9442558629</v>
+        <v>4185315.2854968742</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4157936593696896</v>
+        <v>1.4155112764088977</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4993018019492881</v>
+        <v>1.4989540733538265</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6656395992584585</v>
+        <v>1.665307384010468</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8319773965676291</v>
+        <v>1.8316606946671095</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6696298598229189</v>
+        <v>1.6690928798113978</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12568,27 +12568,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2309761.7662325096</v>
+        <v>2305896.2906977078</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85921719625911053</v>
+        <v>0.85777926309224628</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0108437603048359</v>
+        <v>1.0091520742261721</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0108437603048359</v>
+        <v>1.0091520742261721</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0108437603048359</v>
+        <v>1.0091520742261721</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.436148369935401</v>
+        <v>1.433744920164308</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12629,27 +12629,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2867821.1584470537</v>
+        <v>2865491.1435502083</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1375054278144001</v>
+        <v>1.136645269750572</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2550727811270619</v>
+        <v>1.2540530737899993</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3382416797816472</v>
+        <v>1.3372297291183202</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4214105784362325</v>
+        <v>1.4204063844466408</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5528891148791599</v>
+        <v>1.5514188999878529</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F02B0CD3-283C-42F1-8202-EE2393C0B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC03102C-91F4-4CB2-BE01-CEBEED6E6D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42192295416435543</v>
+        <v>0.42193607010584183</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.343558246897015</v>
+        <v>-24.344314993318104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85777926309224628</v>
+        <v>0.85774459879576648</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.648806658188954</v>
+        <v>1.6487400271507646</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0091520742261721</v>
+        <v>1.0091112927009018</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.433744920164308</v>
+        <v>1.4336869801310999</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6274556.5939519946</v>
+        <v>6274361.54848665</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26035768754240052</v>
+        <v>0.26038067942666543</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10497,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9450852878810823</v>
+        <v>2.9449021939544258</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1078629091844711E-2</v>
+        <v>-4.107735215693991E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1078629091844711E-2</v>
+        <v>-4.107735215693991E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1078629091844711E-2</v>
+        <v>-4.107735215693991E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.77715512410214194</v>
+        <v>-0.77713614042132095</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.77715512410214194</v>
+        <v>-0.77713614042132095</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12394,14 +12394,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0297652777753443</v>
+        <v>2.0296832515613747</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0297652777753443</v>
+        <v>2.0296832515613747</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12444,21 +12444,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-882879.97513089294</v>
+        <v>-882858.4088938171</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38638344742144026</v>
+        <v>-0.38637400917698572</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38638344742144026</v>
+        <v>-0.38637400917698572</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54895126227715152</v>
+        <v>-0.54893785296512854</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12486,17 +12486,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5068195.2606277671</v>
+        <v>5068037.7150724325</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8853375207752667</v>
+        <v>1.8852789147959332</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2180441420885493</v>
+        <v>2.2179751938775687</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12507,27 +12507,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4185315.2854968742</v>
+        <v>4185179.3061786154</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4155112764088977</v>
+        <v>1.4154650883858004</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4989540733538265</v>
+        <v>1.4989049056189474</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.665307384010468</v>
+        <v>1.6652530451597651</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8316606946671095</v>
+        <v>1.8316011847005831</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6690928798113978</v>
+        <v>1.6690373409124402</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12568,27 +12568,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2305896.2906977078</v>
+        <v>2305803.1055670902</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85777926309224628</v>
+        <v>0.85774459879576648</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0091520742261721</v>
+        <v>1.0091112927009018</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0091520742261721</v>
+        <v>1.0091112927009018</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0091520742261721</v>
+        <v>1.0091112927009018</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.433744920164308</v>
+        <v>1.4336869801310999</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12629,27 +12629,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2865491.1435502083</v>
+        <v>2865388.3772424199</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.136645269750572</v>
+        <v>1.1366048435907834</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2540530737899993</v>
+        <v>1.2540080991599245</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3372297291183202</v>
+        <v>1.3371821689303336</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4204063844466408</v>
+        <v>1.4203562387007425</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5514188999878529</v>
+        <v>1.55136216052177</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC03102C-91F4-4CB2-BE01-CEBEED6E6D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8044B8-F5B7-4FCF-86FB-ED1466ACAF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4730,7 +4730,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42193607010584183</v>
+        <v>0.42194918686280064</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.344314993318104</v>
+        <v>-24.345071786789248</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85774459879576648</v>
+        <v>0.8577099350563635</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6487400271507646</v>
+        <v>1.6486733971833769</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0091112927009018</v>
+        <v>1.0090705118310159</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4336869801310999</v>
+        <v>1.4336290410290236</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6274361.54848665</v>
+        <v>6274166.5030213064</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26038067942666543</v>
+        <v>0.26040367131093023</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10497,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9449021939544258</v>
+        <v>2.9447191057193596</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.107735215693991E-2</v>
+        <v>-4.1076075222035116E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.107735215693991E-2</v>
+        <v>-4.1076075222035116E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.107735215693991E-2</v>
+        <v>-4.1076075222035116E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.77713614042132095</v>
+        <v>-0.7771171564463627</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.77713614042132095</v>
+        <v>-0.7771171564463627</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12394,14 +12394,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0296832515613747</v>
+        <v>2.0296012266656169</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0296832515613747</v>
+        <v>2.0296012266656169</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12444,21 +12444,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-882858.4088938171</v>
+        <v>-882836.84232258925</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38637400917698572</v>
+        <v>-0.38636457078629299</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38637400917698572</v>
+        <v>-0.38636457078629299</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54893785296512854</v>
+        <v>-0.54892444344533875</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12486,17 +12486,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5068037.7150724325</v>
+        <v>5067880.1695170999</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8852789147959332</v>
+        <v>1.8852203088166002</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2179751938775687</v>
+        <v>2.2179062456665886</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12507,27 +12507,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4185179.3061786154</v>
+        <v>4185043.3271945105</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4154650883858004</v>
+        <v>1.4154189004870064</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4989049056189474</v>
+        <v>1.4988557380303071</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6652530451597651</v>
+        <v>1.6651987064553015</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8316011847005831</v>
+        <v>1.8315416748802957</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6690373409124402</v>
+        <v>1.6689818022212499</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12568,27 +12568,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2305803.1055670902</v>
+        <v>2305709.9219340151</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85774459879576648</v>
+        <v>0.8577099350563635</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0091112927009018</v>
+        <v>1.0090705118310159</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0091112927009018</v>
+        <v>1.0090705118310159</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0091112927009018</v>
+        <v>1.0090705118310159</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4336869801310999</v>
+        <v>1.4336290410290236</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12629,27 +12629,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2865388.3772424199</v>
+        <v>2865285.6118504801</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1366048435907834</v>
+        <v>1.1365644177716849</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2540080991599245</v>
+        <v>1.2539631249306615</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3371821689303336</v>
+        <v>1.3371346091431588</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4203562387007425</v>
+        <v>1.4203060933556557</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.55136216052177</v>
+        <v>1.5513054216251367</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8044B8-F5B7-4FCF-86FB-ED1466ACAF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{371B3760-D619-4F66-8E89-3FF79C6D9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5118,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5167,7 +5167,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5214,7 +5214,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42194918686280064</v>
+        <v>0.42196230443530791</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.345071786789248</v>
+        <v>-24.345828627314837</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.8577099350563635</v>
+        <v>0.89496550108594275</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6486733971833769</v>
+        <v>1.7445598969818779</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0090705118310159</v>
+        <v>1.0529005895128738</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4336290410290236</v>
+        <v>1.5170086060711983</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10472,11 +10472,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6274166.5030213064</v>
+        <v>6273971.4575559627</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26040367131093023</v>
+        <v>0.26042666319519503</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10497,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9447191057193596</v>
+        <v>2.9445360231758815</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1076075222035116E-2</v>
+        <v>-4.1074798287130329E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1076075222035116E-2</v>
+        <v>-4.1074798287130329E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1076075222035116E-2</v>
+        <v>-4.1074798287130329E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12369,14 +12369,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.7771171564463627</v>
+        <v>-0.81088504922845073</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.7771171564463627</v>
+        <v>-0.81088504922845073</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12394,14 +12394,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0296012266656169</v>
+        <v>2.1177591684397052</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0296012266656169</v>
+        <v>2.1177591684397052</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12444,21 +12444,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-882836.84232258925</v>
+        <v>-921198.54826143372</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38636457078629299</v>
+        <v>-0.40315318147759421</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38636457078629299</v>
+        <v>-0.40315318147759421</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54892444344533875</v>
+        <v>-0.58085905921037206</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12486,17 +12486,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5067880.1695170999</v>
+        <v>5067722.6239617672</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8852203088166002</v>
+        <v>1.8851617028372676</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2179062456665886</v>
+        <v>2.2178372974556089</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12507,27 +12507,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4185043.3271945105</v>
+        <v>4146524.0757003333</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4154189004870064</v>
+        <v>1.4010943708685173</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4988557380303071</v>
+        <v>1.4820085213596734</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6651987064553015</v>
+        <v>1.6483463186688438</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8315416748802957</v>
+        <v>1.8146841159780143</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6689818022212499</v>
+        <v>1.6369782382452369</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12568,27 +12568,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2305709.9219340151</v>
+        <v>2405860.9458766538</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.8577099350563635</v>
+        <v>0.89496550108594275</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0090705118310159</v>
+        <v>1.0529005895128738</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0090705118310159</v>
+        <v>1.0529005895128738</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0090705118310159</v>
+        <v>1.0529005895128738</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4336290410290236</v>
+        <v>1.5170086060711983</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12629,27 +12629,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2865285.6118504801</v>
+        <v>2896113.3139913618</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1365644177716849</v>
+        <v>1.1480299359772301</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2539631249306615</v>
+        <v>1.2674545554362737</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3371346091431588</v>
+        <v>1.3506234540908588</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4203060933556557</v>
+        <v>1.4337923527454439</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5513054216251367</v>
+        <v>1.5769934221582176</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{371B3760-D619-4F66-8E89-3FF79C6D9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E853D45E-75A2-44F4-B200-536761D00E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>2284983948</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,485 +3809,485 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>867764</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>924200</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>1198013</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>1028541</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>699593</v>
       </c>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>341249</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>149665</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>270763</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>398163</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>336621</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>345571</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>398159</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>356401</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>124222</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>94347</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>365801</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>351118</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>8305</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>30280</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>135144</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>140407</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>108297</v>
       </c>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2058</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>8397</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-252904</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>1593322</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>134473</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>105067</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>134337</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>170139</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>11098580</v>
       </c>
-      <c r="E34" s="151">
+      <c r="E34" s="150">
         <v>11219637</v>
       </c>
-      <c r="F34" s="151">
+      <c r="F34" s="150">
         <v>5753012</v>
       </c>
-      <c r="G34" s="151">
+      <c r="G34" s="150">
         <v>3489602</v>
       </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>1937845</v>
       </c>
-      <c r="E37" s="151">
+      <c r="E37" s="150">
         <v>2024596</v>
       </c>
-      <c r="F37" s="151">
+      <c r="F37" s="150">
         <v>9408613</v>
       </c>
-      <c r="G37" s="151">
+      <c r="G37" s="150">
         <v>6338479</v>
       </c>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>29983</v>
       </c>
-      <c r="E38" s="151">
+      <c r="E38" s="150">
         <v>61277</v>
       </c>
-      <c r="F38" s="151">
+      <c r="F38" s="150">
         <v>51229</v>
       </c>
-      <c r="G38" s="151">
+      <c r="G38" s="150">
         <v>23195</v>
       </c>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>29464</v>
       </c>
-      <c r="E39" s="151">
+      <c r="E39" s="150">
         <v>1195554</v>
       </c>
-      <c r="F39" s="151">
+      <c r="F39" s="150">
         <v>2707794</v>
       </c>
-      <c r="G39" s="151">
+      <c r="G39" s="150">
         <v>1053656</v>
       </c>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>29983</v>
       </c>
-      <c r="E40" s="151">
+      <c r="E40" s="150">
         <v>61277</v>
       </c>
-      <c r="F40" s="151">
+      <c r="F40" s="150">
         <v>51229</v>
       </c>
-      <c r="G40" s="151">
+      <c r="G40" s="150">
         <v>23195</v>
       </c>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>9956528</v>
       </c>
-      <c r="E41" s="151">
+      <c r="E41" s="150">
         <v>9722107</v>
       </c>
-      <c r="F41" s="151">
+      <c r="F41" s="150">
         <v>-3323489</v>
       </c>
-      <c r="G41" s="151">
+      <c r="G41" s="150">
         <v>-2590443</v>
       </c>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>9957299</v>
       </c>
-      <c r="E42" s="151">
+      <c r="E42" s="150">
         <v>9714578</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="150">
         <v>-3329901</v>
       </c>
-      <c r="G42" s="151">
+      <c r="G42" s="150">
         <v>-2595281</v>
       </c>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.1</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3833433484274255E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>6.087598701318106E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4292,10 +4296,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4408,7 +4412,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4420,7 +4424,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4440,7 +4444,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4518,7 +4522,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4532,7 +4536,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4547,7 +4551,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4603,14 +4607,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4706,7 +4710,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4714,19 +4718,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4740,14 +4745,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4759,12 +4764,12 @@
         <f>C25</f>
         <v>867764</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>867764</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>867764</v>
       </c>
@@ -4777,15 +4782,15 @@
         <f>C26</f>
         <v>341249</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>341249</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>341249</v>
       </c>
@@ -4798,15 +4803,15 @@
         <f>C27+C28</f>
         <v>711372</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>711372</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>711372</v>
       </c>
@@ -4819,12 +4824,12 @@
         <f>C29</f>
         <v>8305</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>8305</v>
       </c>
@@ -4837,15 +4842,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>136</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>136</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>136</v>
       </c>
@@ -4858,12 +4863,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4876,12 +4881,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2744</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>2744</v>
       </c>
@@ -4890,16 +4895,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.1</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.1</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.1</v>
       </c>
@@ -5018,17 +5023,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5038,40 +5043,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3838.7730326399997</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>4021.5717484800002</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5079,11 +5084,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5094,22 +5099,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0008</v>
       </c>
@@ -5118,7 +5123,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5138,7 +5143,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5149,7 +5154,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5163,11 +5168,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5176,7 +5181,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5187,7 +5192,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5198,10 +5203,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5213,10 +5218,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5238,14 +5243,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.39325092997635303</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5253,7 +5258,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.81977588376563215</v>
       </c>
@@ -5264,7 +5269,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
@@ -5276,46 +5281,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42196230443530791</v>
+        <v>0.44246186410431748</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.345828627314837</v>
+        <v>-25.528585383999573</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>-1.5540778323012416</v>
       </c>
@@ -5324,16 +5329,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.22591626294706857</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3833433484274255E-2</v>
+        <v>6.087598701318106E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5352,10 +5357,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5363,22 +5368,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.89496550108594275</v>
+        <v>0.84504338657791622</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.7445598969818779</v>
+        <v>1.6243260034351896</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0529005895128738</v>
-      </c>
-      <c r="G29" s="273">
+        <v>0.9941686900916662</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5170086060711983</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>1.4124573942914693</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5390,17 +5395,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -5410,7 +5415,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5418,17 +5423,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>disagree</v>
       </c>
@@ -5438,24 +5443,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5465,7 +5470,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly disagree</v>
       </c>
@@ -5484,10 +5489,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -6469,16 +6474,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6492,11 +6497,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6529,7 +6534,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6593,47 +6598,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>867764</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>924200</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1198013</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1028541</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>699593</v>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6695,47 +6700,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>341249</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>149665</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>270763</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>398163</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>336621</v>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6746,47 +6751,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>526515</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>774535</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>927250</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>630378</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>362972</v>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6797,47 +6802,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>345571</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>398159</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>356401</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>124222</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>94347</v>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6848,47 +6853,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>365801</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>351118</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6899,47 +6904,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2744</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11196</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6947,50 +6952,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>1.52153213590132E-2</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>0.47649649878590633</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>0.49211066938508041</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>0.38397325301997021</v>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6998,50 +7003,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-187601</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>14062</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>570849</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>506156</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>268625</v>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7049,50 +7054,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233" t="str">
+      <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.97536651548833408</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>0.12781237405068793</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>0.8842475570032573</v>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7103,47 +7108,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-252904</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>1593322</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7154,47 +7159,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>8305</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>30280</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>135144</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>140407</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>108297</v>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7205,47 +7210,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.15496494438580075</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>0.11368426747457261</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7256,47 +7261,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>134473</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>105067</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7307,47 +7312,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.15480821974638265</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0.18409326985500973</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7358,47 +7363,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>134337</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>170139</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7409,47 +7414,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-196042</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1674612</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>435705</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>365749</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>160328</v>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7460,47 +7465,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-1.3589688379138714</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>0.27276728215804003</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>0.26669986903779236</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>0.17187993590559081</v>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7511,7 +7516,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-147031.5</v>
       </c>
@@ -7559,50 +7564,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.88293288236319811</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>0.19126778200350514</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>1.281254677910284</v>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7719,43 +7724,43 @@
         <f>Fin_Analysis!C28</f>
         <v>8648319</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>11098580</v>
       </c>
-      <c r="E28" s="200">
+      <c r="E28" s="199">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v>11219637</v>
       </c>
-      <c r="F28" s="200">
+      <c r="F28" s="199">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v>5753012</v>
       </c>
-      <c r="G28" s="200">
+      <c r="G28" s="199">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v>3489602</v>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7770,43 +7775,43 @@
         <f>Fin_Analysis!C13</f>
         <v>2576350</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7821,43 +7826,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7872,43 +7877,43 @@
         <f>Fin_Analysis!I28</f>
         <v>959583</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>1937845</v>
       </c>
-      <c r="E31" s="200">
+      <c r="E31" s="199">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>2024596</v>
       </c>
-      <c r="F31" s="200">
+      <c r="F31" s="199">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>9408613</v>
       </c>
-      <c r="G31" s="200">
+      <c r="G31" s="199">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>6338479</v>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7923,43 +7928,43 @@
         <f>Fin_Analysis!I48</f>
         <v>75530</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>29983</v>
       </c>
-      <c r="E32" s="200">
+      <c r="E32" s="199">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v>61277</v>
       </c>
-      <c r="F32" s="200">
+      <c r="F32" s="199">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v>51229</v>
       </c>
-      <c r="G32" s="200">
+      <c r="G32" s="199">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v>23195</v>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7974,43 +7979,43 @@
         <f>Fin_Analysis!I15</f>
         <v>289150</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>29464</v>
       </c>
-      <c r="E33" s="200">
+      <c r="E33" s="199">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1195554</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="199">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>2707794</v>
       </c>
-      <c r="G33" s="200">
+      <c r="G33" s="199">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1053656</v>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -8025,43 +8030,43 @@
         <f>Fin_Analysis!I34</f>
         <v>74975</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>29983</v>
       </c>
-      <c r="E34" s="200">
+      <c r="E34" s="199">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>61277</v>
       </c>
-      <c r="F34" s="200">
+      <c r="F34" s="199">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>51229</v>
       </c>
-      <c r="G34" s="200">
+      <c r="G34" s="199">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>23195</v>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8127,43 +8132,43 @@
         <f>Fin_Analysis!D3</f>
         <v>8483231</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>9956528</v>
       </c>
-      <c r="E36" s="200">
+      <c r="E36" s="199">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>9722107</v>
       </c>
-      <c r="F36" s="200">
+      <c r="F36" s="199">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>-3323489</v>
       </c>
-      <c r="G36" s="200">
+      <c r="G36" s="199">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>-2590443</v>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8178,43 +8183,43 @@
         <f>Fin_Analysis!D4</f>
         <v>-3429</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>9957299</v>
       </c>
-      <c r="E37" s="200">
+      <c r="E37" s="199">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>9714578</v>
       </c>
-      <c r="F37" s="200">
+      <c r="F37" s="199">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>-3329901</v>
       </c>
-      <c r="G37" s="200">
+      <c r="G37" s="199">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>-2595281</v>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8229,43 +8234,43 @@
         <f>Fin_Analysis!C63</f>
         <v>6221996</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8327,47 +8332,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>-5.69117702378511E-2</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8396,47 +8401,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.16194005626487773</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.22601006833815659</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.38711436880007699</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.48116690704452447</v>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8447,47 +8452,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.81073036139363774</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.29749343287593705</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.12077496181484258</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.13485983993550535</v>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8498,47 +8503,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>1.7240012984202553</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8549,47 +8554,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>3.2763471110149316E-2</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>0.11280678924185297</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>0.13651084400135727</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>0.15480000514584907</v>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8600,47 +8605,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.2114260982471326E-2</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8651,47 +8656,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>7.0409002380437138E-2</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8702,47 +8707,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-1.8119584505518287</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>0.36368970954405339</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>0.35559982538372314</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>0.22917324787412111</v>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8771,47 +8776,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>2.9689523879764543</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8822,47 +8827,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8890,47 +8895,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.10874927403338228</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.16502593515322755</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <f t="shared" si="43"/>
         <v>0.176649435381835</v>
       </c>
-      <c r="F53" s="157">
+      <c r="F53" s="156">
         <f t="shared" si="43"/>
         <v>1.5416065535995078</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="156">
         <f t="shared" si="43"/>
         <v>1.6868958703404804</v>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8940,47 +8945,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-0.53839203570202543</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>-28.169831951149764</v>
       </c>
-      <c r="E54" s="158">
+      <c r="E54" s="157">
         <f t="shared" si="44"/>
         <v>0.34666952040489135</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <f t="shared" si="44"/>
         <v>0.13256467959853904</v>
       </c>
-      <c r="G54" s="158">
+      <c r="G54" s="157">
         <f t="shared" si="44"/>
         <v>0.1488859647249248</v>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8990,47 +8995,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-4.2363371114353045E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-1.8081800440937962E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>0.31017316762488378</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>0.38388895116596355</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>0.67547153335661891</v>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9040,47 +9045,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>9.0125804646393277</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>5.7272795295805388</v>
       </c>
-      <c r="E56" s="159">
+      <c r="E56" s="158">
         <f t="shared" si="46"/>
         <v>5.5416670782714181</v>
       </c>
-      <c r="F56" s="159">
+      <c r="F56" s="158">
         <f t="shared" si="46"/>
         <v>0.61146228461091978</v>
       </c>
-      <c r="G56" s="159">
+      <c r="G56" s="158">
         <f t="shared" si="46"/>
         <v>0.55054248818999008</v>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10378,8 +10383,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10428,7 +10433,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>8486660</v>
       </c>
@@ -10472,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6273971.4575559627</v>
+        <v>6268212.8506167</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26042666319519503</v>
+        <v>0.26110548556125612</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10497,7 +10502,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9445360231758815</v>
+        <v>2.9391331794090765</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10525,7 +10530,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10572,7 +10577,7 @@
         <f>Inputs!C48</f>
         <v>4923071</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10600,7 +10605,7 @@
         <f>Inputs!C49</f>
         <v>163001</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10628,7 +10633,7 @@
         <f>Inputs!C50</f>
         <v>2576350</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10656,7 +10661,7 @@
         <f>Inputs!C51</f>
         <v>924658</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10669,7 +10674,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10684,7 +10689,7 @@
         <f>Inputs!C52</f>
         <v>43659</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10711,7 +10716,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10733,7 +10738,7 @@
         <f>Inputs!C54</f>
         <v>17580</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10755,7 +10760,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10776,7 +10781,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10801,7 +10806,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10828,7 +10833,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10849,7 +10854,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -11014,7 +11019,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>959583</v>
       </c>
@@ -11043,7 +11048,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11069,7 +11074,7 @@
         <f>Inputs!C61</f>
         <v>98517</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11096,7 +11101,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11123,7 +11128,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11139,7 +11144,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11153,7 +11158,7 @@
         <f>Inputs!C64</f>
         <v>28511</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11180,7 +11185,7 @@
         <f>Inputs!C65</f>
         <v>232091</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11206,7 +11211,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11233,7 +11238,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11260,7 +11265,7 @@
         <f>Inputs!C68</f>
         <v>116537</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11281,7 +11286,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11302,7 +11307,7 @@
         <f>Inputs!C70</f>
         <v>306071</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11323,7 +11328,7 @@
         <f>Inputs!C71</f>
         <v>88298</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11344,7 +11349,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11490,7 +11495,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>75530</v>
       </c>
@@ -11599,11 +11604,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11614,11 +11619,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11630,11 +11635,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11730,8 +11735,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>364125</v>
@@ -11811,8 +11816,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>670988</v>
@@ -11848,19 +11853,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11870,18 +11875,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11892,17 +11897,17 @@
         <f>Data!C6</f>
         <v>867764</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>867764</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>867764</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11913,23 +11918,23 @@
         <f>Data!C8</f>
         <v>341249</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>341249</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>341249</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.39325092997635303</v>
       </c>
@@ -11939,21 +11944,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>526515</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>526515</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>526515</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11964,23 +11969,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>711372</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>711372</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>711372</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.81977588376563215</v>
       </c>
@@ -11994,54 +11999,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2744</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>2744</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>2744</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>-187601</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>-187601</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>-187601</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>-0.21618896381965605</v>
       </c>
@@ -12055,27 +12060,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12087,23 +12092,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>8305</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>8305</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>8305</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
@@ -12117,23 +12122,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>136</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>136</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>136</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
@@ -12143,27 +12148,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>-196042</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>-196042</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>-196042</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>-0.22591626294706857</v>
       </c>
@@ -12173,49 +12178,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>-0.16943719721030143</v>
       </c>
@@ -12225,69 +12230,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1074798287130329E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>-3.9171774893048524E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1074798287130329E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>-3.9171774893048524E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1074798287130329E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>-3.9171774893048524E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.1</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.1</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.1</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>-1.5540778323012416</v>
       </c>
@@ -12297,21 +12302,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3833433484274255E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>6.087598701318106E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3833433484274255E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.087598701318106E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3833433484274255E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.087598701318106E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12333,22 +12338,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12358,9 +12363,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12368,15 +12373,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.81088504922845073</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>-0.78411937152044331</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.81088504922845073</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>-0.78411937152044331</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,24 +12389,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.1177591684397052</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>1.9996283404033321</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.1177591684397052</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>1.9996283404033321</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12422,14 +12430,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12444,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-921198.54826143372</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>-890791.64475358103</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.40315318147759421</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>-0.38984590921668089</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.40315318147759421</v>
+        <v>-0.38984590921668089</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.58085905921037206</v>
+        <v>-0.55387052780409984</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12470,14 +12478,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12486,19 +12494,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5067722.6239617672</v>
-      </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+        <v>5063071.1806349959</v>
+      </c>
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8851617028372676</v>
-      </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+        <v>1.8834313944772385</v>
+      </c>
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2178372974556089</v>
-      </c>
-      <c r="I99" s="217"/>
+        <v>2.2158016405614571</v>
+      </c>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12507,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4146524.0757003333</v>
+        <v>4172279.535881415</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4010943708685173</v>
+        <v>1.410805017057267</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4820085213596734</v>
+        <v>1.4935854852605577</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6483463186688438</v>
+        <v>1.6597706083026671</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8146841159780143</v>
+        <v>1.8259557313447765</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6369782382452369</v>
+        <v>1.6619311127573573</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12546,14 +12554,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12568,27 +12576,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2405860.9458766538</v>
+        <v>2271659.4984636442</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.89496550108594275</v>
+        <v>0.84504338657791622</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0529005895128738</v>
+        <v>0.9941686900916662</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0529005895128738</v>
+        <v>0.9941686900916662</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0529005895128738</v>
+        <v>0.9941686900916662</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5170086060711983</v>
+        <v>1.4124573942914693</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12607,14 +12615,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12629,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2896113.3139913618</v>
+        <v>2842239.1786249047</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1480299359772301</v>
+        <v>1.1279242018175917</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2674545554362737</v>
+        <v>1.243877087676112</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3506234540908588</v>
+        <v>1.3269696491971668</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4337923527454439</v>
+        <v>1.4100622107182215</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5769934221582176</v>
+        <v>1.5371942535244134</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E853D45E-75A2-44F4-B200-536761D00E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F53DFD-5B05-4EC9-A9D1-4B6386A6B510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4721,7 +4721,9 @@
       <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5033,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5074,7 +5076,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4021.5717484800002</v>
+        <v>3815.9231931599998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5123,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,10 +5171,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5219,7 +5221,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5290,7 +5292,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44246186410431748</v>
+        <v>0.42072476139291548</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5306,7 +5308,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.528585383999573</v>
+        <v>-24.274426488990347</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5338,7 +5340,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5368,20 +5370,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.84504338657791622</v>
+        <v>0.85583271747267031</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6243260034351896</v>
+        <v>1.4998361243159517</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.9941686900916662</v>
+        <v>1.0068620205560828</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4124573942914693</v>
+        <v>1.304205325492132</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10479,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6268212.8506167</v>
+        <v>6254971.1465570983</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26110548556125612</v>
+        <v>0.26266641253113365</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10502,7 +10504,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9391331794090765</v>
+        <v>2.9267283603568313</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12253,17 +12255,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9171774893048524E-2</v>
+        <v>-4.1195617966651013E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9171774893048524E-2</v>
+        <v>-4.1195617966651013E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9171774893048524E-2</v>
+        <v>-4.1195617966651013E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12304,17 +12306,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12363,7 +12365,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12374,14 +12376,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.78411937152044331</v>
+        <v>-0.77425683487744423</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.78411937152044331</v>
+        <v>-0.77425683487744423</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12395,21 +12397,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.9996283404033321</v>
+        <v>2.0251591618662492</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.9996283404033321</v>
+        <v>2.0251591618662492</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12452,21 +12454,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-890791.64475358103</v>
+        <v>-879587.40014905843</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38984590921668089</v>
+        <v>-0.38494248544675486</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38984590921668089</v>
+        <v>-0.38494248544675486</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.55387052780409984</v>
+        <v>-0.49862248180794405</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12494,17 +12496,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5063071.1806349959</v>
+        <v>5052375.3584278617</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8834313944772385</v>
+        <v>1.8794526142831718</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2158016405614571</v>
+        <v>2.2111207226860845</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12515,27 +12517,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4172279.535881415</v>
+        <v>4172787.9582788032</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.410805017057267</v>
+        <v>1.411292555582192</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4935854852605577</v>
+        <v>1.4945101288364169</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6597706083026671</v>
+        <v>1.6603441830378731</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8259557313447765</v>
+        <v>1.8261782372393294</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6619311127573573</v>
+        <v>1.7124982408781404</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12576,27 +12578,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2271659.4984636442</v>
+        <v>2300663.554821495</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.84504338657791622</v>
+        <v>0.85583271747267031</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.9941686900916662</v>
+        <v>1.0068620205560828</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.9941686900916662</v>
+        <v>1.0068620205560828</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.9941686900916662</v>
+        <v>1.0068620205560828</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4124573942914693</v>
+        <v>1.304205325492132</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12637,27 +12639,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2842239.1786249047</v>
+        <v>2857797.6046680599</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1279242018175917</v>
+        <v>1.1335626365274312</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.243877087676112</v>
+        <v>1.2506860746962498</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3269696491971668</v>
+        <v>1.3336031017969781</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4100622107182215</v>
+        <v>1.4165201288977061</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5371942535244134</v>
+        <v>1.5083517831851361</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F53DFD-5B05-4EC9-A9D1-4B6386A6B510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84AC147-EBA2-4827-8CEA-788DB76C75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4021196669923092E-2</v>
+        <v>6.2244282674419782E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3815.9231931599998</v>
+        <v>3930.1723905600002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5125,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42072476139291548</v>
+        <v>0.43273536999265272</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.274426488990347</v>
+        <v>-24.967398860231594</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4021196669923092E-2</v>
+        <v>6.2244282674419782E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5370,20 +5370,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.85583271747267031</v>
+        <v>0.84985953641716006</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.4998361243159517</v>
+        <v>1.4893681992866423</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0068620205560828</v>
+        <v>0.9998347487260707</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.304205325492132</v>
+        <v>1.2951027819883847</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10479,11 +10479,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6254971.1465570983</v>
+        <v>6263440.6297435341</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26266641253113365</v>
+        <v>0.26166803311809683</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10504,7 +10504,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9267283603568313</v>
+        <v>2.934659542755738</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1195617966651013E-2</v>
+        <v>-4.0052229933844385E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1195617966651013E-2</v>
+        <v>-4.0052229933844385E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1195617966651013E-2</v>
+        <v>-4.0052229933844385E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12306,17 +12306,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4021196669923092E-2</v>
+        <v>6.2244282674419782E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4021196669923092E-2</v>
+        <v>6.2244282674419782E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4021196669923092E-2</v>
+        <v>6.2244282674419782E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12376,14 +12376,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.77425683487744423</v>
+        <v>-0.77993906169252714</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.77425683487744423</v>
+        <v>-0.77993906169252714</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12404,14 +12404,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.0251591618662492</v>
+        <v>2.0110248081624382</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.0251591618662492</v>
+        <v>2.0110248081624382</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12454,21 +12454,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-879587.40014905843</v>
+        <v>-886042.64198380068</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38494248544675486</v>
+        <v>-0.38776755642390215</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38494248544675486</v>
+        <v>-0.38776755642390215</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.49862248180794405</v>
+        <v>-0.50228184380399377</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12496,17 +12496,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5052375.3584278617</v>
+        <v>5059216.4784182105</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8794526142831718</v>
+        <v>1.8819974689185341</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2111207226860845</v>
+        <v>2.2141146693159226</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12517,27 +12517,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4172787.9582788032</v>
+        <v>4173173.83643441</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.411292555582192</v>
+        <v>1.4112452357893273</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4945101288364169</v>
+        <v>1.4942299124946321</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6603441830378731</v>
+        <v>1.6602885126933262</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8261782372393294</v>
+        <v>1.8263471128920203</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.7124982408781404</v>
+        <v>1.7118328255119288</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12578,27 +12578,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2300663.554821495</v>
+        <v>2284606.351491685</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.85583271747267031</v>
+        <v>0.84985953641716006</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0068620205560828</v>
+        <v>0.9998347487260707</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0068620205560828</v>
+        <v>0.9998347487260707</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0068620205560828</v>
+        <v>0.9998347487260707</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.304205325492132</v>
+        <v>1.2951027819883847</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12639,27 +12639,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2857797.6046680599</v>
+        <v>2849448.8580816821</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1335626365274312</v>
+        <v>1.1305523861032436</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2506860746962498</v>
+        <v>1.2470323306103515</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3336031017969781</v>
+        <v>1.3300616307096984</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4165201288977061</v>
+        <v>1.4130909308090456</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5083517831851361</v>
+        <v>1.5034678037501568</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84AC147-EBA2-4827-8CEA-788DB76C75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA33274F-CA2E-450A-B012-080D60BC4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>9959.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>disagree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3716,7 +3724,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4249,7 +4257,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2244282674419782E-2</v>
+        <v>5.727857191932393E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4382,7 +4390,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -4502,7 +4510,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -4719,7 +4727,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -5035,10 +5043,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5076,7 +5084,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>3930.1723905600002</v>
+        <v>4272.9199827600005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5125,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,10 +5179,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5221,7 +5229,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5292,7 +5300,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43273536999265272</v>
+        <v>0.47025094709030651</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5316,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.967398860231594</v>
+        <v>-27.131923513912646</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5340,7 +5348,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2244282674419782E-2</v>
+        <v>5.727857191932393E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5370,20 +5378,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.84985953641716006</v>
+        <v>0.98845132783484968</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.4893681992866423</v>
+        <v>1.826415354062725</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.9998347487260707</v>
+        <v>1.1628839150998231</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.2951027819883847</v>
+        <v>1.5881872644023698</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10479,11 +10487,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6263440.6297435341</v>
+        <v>6266410.4817337282</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26166803311809683</v>
+        <v>0.26131794811036879</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10504,7 +10512,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.934659542755738</v>
+        <v>2.9374431791805415</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12255,17 +12263,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0052229933844385E-2</v>
+        <v>-3.6856951903436637E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0052229933844385E-2</v>
+        <v>-3.6856951903436637E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0052229933844385E-2</v>
+        <v>-3.6856951903436637E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12306,17 +12314,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2244282674419782E-2</v>
+        <v>5.727857191932393E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2244282674419782E-2</v>
+        <v>5.727857191932393E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2244282674419782E-2</v>
+        <v>5.727857191932393E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12365,7 +12373,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12376,14 +12384,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.77993906169252714</v>
+        <v>-0.94419048414155837</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.77993906169252714</v>
+        <v>-0.94419048414155837</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12404,14 +12412,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.0110248081624382</v>
+        <v>2.3389749208641684</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.0110248081624382</v>
+        <v>2.3389749208641684</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12454,21 +12462,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-886042.64198380068</v>
+        <v>-1072638.969112894</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38776755642390215</v>
+        <v>-0.46942954240521173</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38776755642390215</v>
+        <v>-0.46942954240521173</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.50228184380399377</v>
+        <v>-0.64111474163626325</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12496,17 +12504,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5059216.4784182105</v>
+        <v>5061615.339525938</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8819974689185341</v>
+        <v>1.8828898305228037</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2141146693159226</v>
+        <v>2.2151645064974161</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12517,27 +12525,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4173173.83643441</v>
+        <v>3988976.370413044</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4112452357893273</v>
+        <v>1.3426579821891635</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4942299124946321</v>
+        <v>1.4134602881175919</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6602885126933262</v>
+        <v>1.5795976261048983</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8263471128920203</v>
+        <v>1.7457349640922046</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.7118328255119288</v>
+        <v>1.5740497648611529</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12578,27 +12586,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2284606.351491685</v>
+        <v>2657171.0793904904</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.84985953641716006</v>
+        <v>0.98845132783484968</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.9998347487260707</v>
+        <v>1.1628839150998231</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.9998347487260707</v>
+        <v>1.1628839150998231</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.9998347487260707</v>
+        <v>1.1628839150998231</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.2951027819883847</v>
+        <v>1.5881872644023698</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12639,27 +12647,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2849448.8580816821</v>
+        <v>2943452.5744373216</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1305523861032436</v>
+        <v>1.1655546550120066</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2470323306103515</v>
+        <v>1.2881721016087075</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3300616307096984</v>
+        <v>1.3712407706023608</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4130909308090456</v>
+        <v>1.4543094395960139</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5034678037501568</v>
+        <v>1.5811185146317612</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA33274F-CA2E-450A-B012-080D60BC4182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18CCC23-D11B-4756-B93D-C5EA9AF40D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3724,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4257,7 +4261,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.727857191932393E-2</v>
+        <v>5.7854555748604437E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4727,7 +4731,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -5043,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5084,7 +5088,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4272.9199827600005</v>
+        <v>4227.2203037999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5133,7 +5137,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5154,7 +5158,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5165,7 +5169,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5192,7 +5196,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5300,7 +5304,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47025094709030651</v>
+        <v>0.46556925974999025</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5316,7 +5320,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.131923513912646</v>
+        <v>-26.861805646804726</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5348,7 +5352,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.727857191932393E-2</v>
+        <v>5.7854555748604437E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5378,20 +5382,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.98845132783484968</v>
+        <v>0.99040641441792143</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.826415354062725</v>
+        <v>1.8300278740253071</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1628839150998231</v>
+        <v>1.1651840169622605</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5881872644023698</v>
+        <v>1.5913285861089628</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5426,8 +5430,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6453,12 +6457,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8884,118 +8888,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>4.4812531008576082</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>-5.819015167285702</v>
+      </c>
+      <c r="E52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.10874927403338228</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.16502593515322755</v>
       </c>
-      <c r="E53" s="156">
-        <f t="shared" si="43"/>
+      <c r="E54" s="156">
+        <f t="shared" si="44"/>
         <v>0.176649435381835</v>
       </c>
-      <c r="F53" s="156">
-        <f t="shared" si="43"/>
+      <c r="F54" s="156">
+        <f t="shared" si="44"/>
         <v>1.5416065535995078</v>
       </c>
-      <c r="G53" s="156">
-        <f t="shared" si="43"/>
+      <c r="G54" s="156">
+        <f t="shared" si="44"/>
         <v>1.6868958703404804</v>
       </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.53839203570202543</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>-28.169831951149764</v>
-      </c>
-      <c r="E54" s="157">
+        <v/>
+      </c>
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.34666952040489135</v>
-      </c>
-      <c r="F54" s="157">
+        <v/>
+      </c>
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.13256467959853904</v>
-      </c>
-      <c r="G54" s="157">
+        <v/>
+      </c>
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.1488859647249248</v>
-      </c>
-      <c r="H54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9003,107 +9008,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-4.2363371114353045E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-0.53839203570202543</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>-1.8081800440937962E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v>-28.169831951149764</v>
+      </c>
+      <c r="E55" s="157">
         <f t="shared" si="45"/>
-        <v>0.31017316762488378</v>
-      </c>
-      <c r="F55" s="153">
+        <v>0.34666952040489135</v>
+      </c>
+      <c r="F55" s="157">
         <f t="shared" si="45"/>
-        <v>0.38388895116596355</v>
-      </c>
-      <c r="G55" s="153">
+        <v>0.13256467959853904</v>
+      </c>
+      <c r="G55" s="157">
         <f t="shared" si="45"/>
-        <v>0.67547153335661891</v>
-      </c>
-      <c r="H55" s="153" t="str">
+        <v>0.1488859647249248</v>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-4.2363371114353045E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-1.8081800440937962E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.31017316762488378</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.38388895116596355</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.67547153335661891</v>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>9.0125804646393277</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>5.7272795295805388</v>
       </c>
-      <c r="E56" s="158">
-        <f t="shared" si="46"/>
+      <c r="E57" s="158">
+        <f t="shared" si="47"/>
         <v>5.5416670782714181</v>
       </c>
-      <c r="F56" s="158">
-        <f t="shared" si="46"/>
+      <c r="F57" s="158">
+        <f t="shared" si="47"/>
         <v>0.61146228461091978</v>
       </c>
-      <c r="G56" s="158">
-        <f t="shared" si="46"/>
+      <c r="G57" s="158">
+        <f t="shared" si="47"/>
         <v>0.55054248818999008</v>
       </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9671,7 +9723,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10354,6 +10408,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10487,11 +10542,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6266410.4817337282</v>
+        <v>6261730.0879866779</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26131794811036879</v>
+        <v>0.26186967112098236</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10512,7 +10567,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9374431791805415</v>
+        <v>2.9330568542250313</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12263,17 +12318,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6856951903436637E-2</v>
+        <v>-3.7227579305300809E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6856951903436637E-2</v>
+        <v>-3.7227579305300809E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6856951903436637E-2</v>
+        <v>-3.7227579305300809E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12314,17 +12369,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.727857191932393E-2</v>
+        <v>5.7854555748604437E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.727857191932393E-2</v>
+        <v>5.7854555748604437E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.727857191932393E-2</v>
+        <v>5.7854555748604437E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12384,14 +12439,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94419048414155837</v>
+        <v>-0.94167134864186208</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94419048414155837</v>
+        <v>-0.94167134864186208</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12412,14 +12467,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3389749208641684</v>
+        <v>2.3436012472771637</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3389749208641684</v>
+        <v>2.3436012472771637</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12462,21 +12517,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1072638.969112894</v>
+        <v>-1069777.1282546837</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.46942954240521173</v>
+        <v>-0.46817708684169873</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.46942954240521173</v>
+        <v>-0.46817708684169873</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.64111474163626325</v>
+        <v>-0.63940422354466986</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12504,17 +12559,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5061615.339525938</v>
+        <v>5057834.8095312715</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8828898305228037</v>
+        <v>1.8814834965753466</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2151645064974161</v>
+        <v>2.2135099959709961</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12525,27 +12580,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3988976.370413044</v>
+        <v>3988057.6812765878</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3426579821891635</v>
+        <v>1.342421710516752</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4134602881175919</v>
+        <v>1.4133064097336479</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.5795976261048983</v>
+        <v>1.5793196594314729</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7457349640922046</v>
+        <v>1.7453329091292977</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.5740497648611529</v>
+        <v>1.5741057724263263</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12586,27 +12641,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2657171.0793904904</v>
+        <v>2662426.775224925</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.98845132783484968</v>
+        <v>0.99040641441792143</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1628839150998231</v>
+        <v>1.1651840169622605</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1628839150998231</v>
+        <v>1.1651840169622605</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1628839150998231</v>
+        <v>1.1651840169622605</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5881872644023698</v>
+        <v>1.5913285861089628</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12647,27 +12702,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2943452.5744373216</v>
+        <v>2945904.6175359106</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1655546550120066</v>
+        <v>1.1664140624673367</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2881721016087075</v>
+        <v>1.2892452133479542</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3712407706023608</v>
+        <v>1.3722518381968667</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4543094395960139</v>
+        <v>1.4552584630457792</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5811185146317612</v>
+        <v>1.5827171792676444</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18CCC23-D11B-4756-B93D-C5EA9AF40D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4680C63A-5F28-42E6-8EC4-B6D057E4C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7854555748604437E-2</v>
+        <v>5.8147244263386376E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4227.2203037999998</v>
+        <v>4204.3704643199999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5137,7 +5137,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.46556925974999025</v>
+        <v>0.46322578196543507</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-26.861805646804726</v>
+        <v>-26.726594733566749</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7854555748604437E-2</v>
+        <v>5.8147244263386376E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5382,20 +5382,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.99040641441792143</v>
+        <v>0.99140666860441207</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.8300278740253071</v>
+        <v>1.8318760981641466</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1651840169622605</v>
+        <v>1.166360786593426</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5913285861089628</v>
+        <v>1.5929357375340407</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10448,8 +10448,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10542,11 +10542,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6261730.0879866779</v>
+        <v>6259390.007350022</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26186967112098236</v>
+        <v>0.2621455189243318</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10567,7 +10567,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9330568542250313</v>
+        <v>2.930865029616454</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12318,17 +12318,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.7227579305300809E-2</v>
+        <v>-3.741591512008334E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.7227579305300809E-2</v>
+        <v>-3.741591512008334E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.7227579305300809E-2</v>
+        <v>-3.741591512008334E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12369,17 +12369,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7854555748604437E-2</v>
+        <v>5.8147244263386376E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7854555748604437E-2</v>
+        <v>5.8147244263386376E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7854555748604437E-2</v>
+        <v>5.8147244263386376E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12439,14 +12439,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94167134864186208</v>
+        <v>-0.94039909925394016</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94167134864186208</v>
+        <v>-0.94039909925394016</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12467,14 +12467,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3436012472771637</v>
+        <v>2.3459681513328405</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3436012472771637</v>
+        <v>2.3459681513328405</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12517,21 +12517,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1069777.1282546837</v>
+        <v>-1068331.8009665615</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.46817708684169873</v>
+        <v>-0.46754455404452644</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.46817708684169873</v>
+        <v>-0.46754455404452644</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.63940422354466986</v>
+        <v>-0.63854035354032845</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12540,7 +12540,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12559,17 +12559,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5057834.8095312715</v>
+        <v>5055944.6384228263</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8814834965753466</v>
+        <v>1.8807803645277086</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2135099959709961</v>
+        <v>2.2126827817973043</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12579,28 +12579,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>3988057.6812765878</v>
+        <f>C97+C98+$C$99</f>
+        <v>3987612.8374562645</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.342421710516752</v>
+        <v>1.3423089662502827</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4133064097336479</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>1.4132358104831821</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.5793196594314729</v>
+        <v>1.5791870191179798</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7453329091292977</v>
+        <v>1.7451382277527774</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>1.5741057724263263</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>1.5741424282569758</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12641,27 +12641,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2662426.775224925</v>
+        <v>2665115.6749426322</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.99040641441792143</v>
+        <v>0.99140666860441207</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1651840169622605</v>
+        <v>1.166360786593426</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1651840169622605</v>
+        <v>1.166360786593426</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1651840169622605</v>
+        <v>1.166360786593426</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5913285861089628</v>
+        <v>1.5929357375340407</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12702,27 +12702,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2945904.6175359106</v>
+        <v>2947168.4083177368</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1664140624673367</v>
+        <v>1.1668578174273474</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2892452133479542</v>
+        <v>1.2897982985383041</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3722518381968667</v>
+        <v>1.3727739028557029</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4552584630457792</v>
+        <v>1.4557495071731017</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5827171792676444</v>
+        <v>1.5835390828955083</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4680C63A-5F28-42E6-8EC4-B6D057E4C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD2FF94-00B4-4F3C-9EB0-2FD5EE5927D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8147244263386376E-2</v>
+        <v>5.6627549401877003E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4204.3704643199999</v>
+        <v>4318.6196617199994</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5137,7 +5137,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.46322578196543507</v>
+        <v>0.47565721945490902</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-26.726594733566749</v>
+        <v>-27.443847539157847</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8147244263386376E-2</v>
+        <v>5.6627549401877003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5382,20 +5382,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.99140666860441207</v>
+        <v>0.9846311481860669</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.8318760981641466</v>
+        <v>1.8193566000610502</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.166360786593426</v>
+        <v>1.1583895861012552</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5929357375340407</v>
+        <v>1.5820492174443916</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10542,11 +10542,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6259390.007350022</v>
+        <v>6261445.7726063263</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.2621455189243318</v>
+        <v>0.26190318610841479</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10567,7 +10567,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.930865029616454</v>
+        <v>2.9327905079496821</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12318,17 +12318,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.741591512008334E-2</v>
+        <v>-3.6438039475812013E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.741591512008334E-2</v>
+        <v>-3.6438039475812013E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.741591512008334E-2</v>
+        <v>-3.6438039475812013E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12369,17 +12369,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8147244263386376E-2</v>
+        <v>5.6627549401877003E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8147244263386376E-2</v>
+        <v>5.6627549401877003E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8147244263386376E-2</v>
+        <v>5.6627549401877003E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12439,14 +12439,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94039909925394016</v>
+        <v>-0.9454959317495728</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94039909925394016</v>
+        <v>-0.9454959317495728</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12467,14 +12467,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3459681513328405</v>
+        <v>2.3299352199299088</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3459681513328405</v>
+        <v>2.3299352199299088</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12517,21 +12517,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1068331.8009665615</v>
+        <v>-1074122.0109355033</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.46754455404452644</v>
+        <v>-0.4700785805850673</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.46754455404452644</v>
+        <v>-0.4700785805850673</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.63854035354032845</v>
+        <v>-0.64200115356265841</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12559,17 +12559,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5055944.6384228263</v>
+        <v>5057605.1573093738</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8807803645277086</v>
+        <v>1.8813980673587503</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2126827817973043</v>
+        <v>2.2134094910102946</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12580,27 +12580,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3987612.8374562645</v>
+        <v>3983483.1463738708</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3423089662502827</v>
+        <v>1.3407264188095369</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4132358104831821</v>
+        <v>1.4113194867736829</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.5791870191179798</v>
+        <v>1.5773251985994552</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7451382277527774</v>
+        <v>1.7433309104252275</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.5741424282569758</v>
+        <v>1.5714083374476362</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12641,27 +12641,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2665115.6749426322</v>
+        <v>2646901.6097717318</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.99140666860441207</v>
+        <v>0.9846311481860669</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.166360786593426</v>
+        <v>1.1583895861012552</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.166360786593426</v>
+        <v>1.1583895861012552</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.166360786593426</v>
+        <v>1.1583895861012552</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5929357375340407</v>
+        <v>1.5820492174443916</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12702,27 +12702,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2947168.4083177368</v>
+        <v>2935871.9912745981</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1668578174273474</v>
+        <v>1.1626787834978018</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2897982985383041</v>
+        <v>1.2848545364374691</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3727739028557029</v>
+        <v>1.3678573923503552</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4557495071731017</v>
+        <v>1.4508602482632413</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5835390828955083</v>
+        <v>1.5767287774460139</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD2FF94-00B4-4F3C-9EB0-2FD5EE5927D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C4AE76A-FF0A-46CB-A024-F484D06990A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6627549401877003E-2</v>
+        <v>5.6923441853083623E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4318.6196617199994</v>
+        <v>4295.7698222399995</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5137,7 +5137,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5183,10 +5183,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5233,7 +5233,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47565721945490902</v>
+        <v>0.47318471645760452</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.443847539157847</v>
+        <v>-27.301192298108642</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6627549401877003E-2</v>
+        <v>5.6923441853083623E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5382,20 +5382,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.9846311481860669</v>
+        <v>0.90034818639036795</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.8193566000610502</v>
+        <v>1.6200546432137466</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1583895861012552</v>
+        <v>1.0592331604592564</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5820492174443916</v>
+        <v>1.4087431680119538</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10542,11 +10542,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6261445.7726063263</v>
+        <v>6260860.8686840292</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26190318610841479</v>
+        <v>0.26197213435729505</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10567,7 +10567,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9327905079496821</v>
+        <v>2.9322426087542475</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12318,17 +12318,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6438039475812013E-2</v>
+        <v>-3.6628436922488454E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6438039475812013E-2</v>
+        <v>-3.6628436922488454E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6438039475812013E-2</v>
+        <v>-3.6628436922488454E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12369,17 +12369,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6627549401877003E-2</v>
+        <v>5.6923441853083623E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6627549401877003E-2</v>
+        <v>5.6923441853083623E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6627549401877003E-2</v>
+        <v>5.6923441853083623E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12428,7 +12428,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12439,14 +12439,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.9454959317495728</v>
+        <v>-0.86250071889011504</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.9454959317495728</v>
+        <v>-0.86250071889011504</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12467,14 +12467,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3299352199299088</v>
+        <v>2.1304962305280655</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3299352199299088</v>
+        <v>2.1304962305280655</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12517,21 +12517,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1074122.0109355033</v>
+        <v>-979836.05798628135</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.4700785805850673</v>
+        <v>-0.42881529161021548</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.4700785805850673</v>
+        <v>-0.42881529161021548</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.64200115356265841</v>
+        <v>-0.57030938507724449</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12559,17 +12559,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5057605.1573093738</v>
+        <v>5057132.7084211502</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8813980673587503</v>
+        <v>1.8812223192729305</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2134094910102946</v>
+        <v>2.2132027285563889</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12580,27 +12580,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3983483.1463738708</v>
+        <v>4077296.6504348689</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3407264188095369</v>
+        <v>1.3756376474587777</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4113194867736829</v>
+        <v>1.452407027662715</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.5773251985994552</v>
+        <v>1.6183972323044444</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7433309104252275</v>
+        <v>1.7843874369461736</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.5714083374476362</v>
+        <v>1.6428933434791444</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12641,27 +12641,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2646901.6097717318</v>
+        <v>2420330.7688387092</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.9846311481860669</v>
+        <v>0.90034818639036795</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1583895861012552</v>
+        <v>1.0592331604592564</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1583895861012552</v>
+        <v>1.0592331604592564</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1583895861012552</v>
+        <v>1.0592331604592564</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5820492174443916</v>
+        <v>1.4087431680119538</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12702,27 +12702,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2935871.9912745981</v>
+        <v>2869528.7565052025</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1626787834978018</v>
+        <v>1.1379929169245728</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2848545364374691</v>
+        <v>1.2558200940609856</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3678573923503552</v>
+        <v>1.3388151963818504</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4508602482632413</v>
+        <v>1.421810298702715</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5767287774460139</v>
+        <v>1.5258182557455491</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C4AE76A-FF0A-46CB-A024-F484D06990A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE88729-EAED-4165-9893-F9DF63C4D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4261,7 +4272,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6923441853083623E-2</v>
+        <v>5.9399611420101597E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5047,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5088,7 +5099,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4295.7698222399995</v>
+        <v>4112.9711064000003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5137,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5304,7 +5315,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47318471645760452</v>
+        <v>0.45345924071023569</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5331,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.301192298108642</v>
+        <v>-26.16309762213902</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5352,7 +5363,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6923441853083623E-2</v>
+        <v>5.9399611420101597E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5382,20 +5393,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.90034818639036795</v>
+        <v>0.91012070986882165</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6200546432137466</v>
+        <v>1.637638975893593</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0592331604592564</v>
+        <v>1.0707302469044961</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4087431680119538</v>
+        <v>1.4240338920813853</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10542,11 +10553,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6260860.8686840292</v>
+        <v>6255199.4357668348</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26197213435729505</v>
+        <v>0.26263950188709528</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10567,7 +10578,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9322426087542475</v>
+        <v>2.9269419992950412</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12318,17 +12329,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6628436922488454E-2</v>
+        <v>-3.8221773829785637E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6628436922488454E-2</v>
+        <v>-3.8221773829785637E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6628436922488454E-2</v>
+        <v>-3.8221773829785637E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12369,17 +12380,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6923441853083623E-2</v>
+        <v>5.9399611420101597E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6923441853083623E-2</v>
+        <v>5.9399611420101597E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6923441853083623E-2</v>
+        <v>5.9399611420101597E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12439,14 +12450,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.86250071889011504</v>
+        <v>-0.85461825400517322</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.86250071889011504</v>
+        <v>-0.85461825400517322</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12467,14 +12478,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1304962305280655</v>
+        <v>2.1536209779850073</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1304962305280655</v>
+        <v>2.1536209779850073</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12517,21 +12528,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-979836.05798628135</v>
+        <v>-970881.25580360554</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42881529161021548</v>
+        <v>-0.42489631345261669</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42881529161021548</v>
+        <v>-0.42489631345261669</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.57030938507724449</v>
+        <v>-0.56509728078217913</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12559,17 +12570,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5057132.7084211502</v>
+        <v>5052559.75620538</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8812223192729305</v>
+        <v>1.8795212091242981</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2132027285563889</v>
+        <v>2.2112014224991743</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12580,27 +12591,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4077296.6504348689</v>
+        <v>4081678.5004017744</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3756376474587777</v>
+        <v>1.3773952520052517</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.452407027662715</v>
+        <v>1.4546248956716814</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6183972323044444</v>
+        <v>1.6204650023591196</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7843874369461736</v>
+        <v>1.7863051090465578</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6428933434791444</v>
+        <v>1.6461041417169953</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12641,27 +12652,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2420330.7688387092</v>
+        <v>2446601.4268148504</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.90034818639036795</v>
+        <v>0.91012070986882165</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0592331604592564</v>
+        <v>1.0707302469044961</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0592331604592564</v>
+        <v>1.0707302469044961</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0592331604592564</v>
+        <v>1.0707302469044961</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4087431680119538</v>
+        <v>1.4240338920813853</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12702,27 +12713,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2869528.7565052025</v>
+        <v>2885197.9818929085</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1379929169245728</v>
+        <v>1.1437579809370366</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2558200940609856</v>
+        <v>1.2626775712880889</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3388151963818504</v>
+        <v>1.3455976246318078</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.421810298702715</v>
+        <v>1.4285176779755271</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5258182557455491</v>
+        <v>1.5350690168991903</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE88729-EAED-4165-9893-F9DF63C4D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B312AC-E0D3-4C18-B5E3-7A71F3194AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +937,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>2284983948</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3856,7 +3881,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>341249</v>
@@ -3882,7 +3907,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>345571</v>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>365801</v>
@@ -3928,7 +3953,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>8305</v>
@@ -3954,7 +3979,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>2058</v>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-252904</v>
@@ -3994,7 +4019,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>134473</v>
@@ -4014,7 +4039,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>134337</v>
@@ -4058,7 +4083,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4114,7 +4139,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4186,7 +4211,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4210,7 +4235,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4234,7 +4259,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4250,7 +4275,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.1</v>
@@ -4268,11 +4293,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9399611420101597E-2</v>
+        <v>6.0753391096086219E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4317,21 +4342,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>4923071</v>
@@ -4343,7 +4368,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>163001</v>
@@ -4355,7 +4380,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>2576350</v>
@@ -4368,7 +4393,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>924658</v>
@@ -4380,7 +4405,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>43659</v>
@@ -4392,7 +4417,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4405,7 +4430,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -4417,7 +4442,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4428,7 +4453,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4436,24 +4461,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4464,7 +4489,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4475,7 +4500,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4486,7 +4511,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>98517</v>
@@ -4499,7 +4524,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4512,7 +4537,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4525,7 +4550,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -4537,7 +4562,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>232091</v>
@@ -4546,12 +4571,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4560,12 +4585,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4575,12 +4600,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>116537</v>
@@ -4593,7 +4618,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4606,7 +4631,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>306071</v>
@@ -4618,7 +4643,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>88298</v>
@@ -4631,7 +4656,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4641,7 +4666,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>270468</v>
@@ -4649,7 +4674,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>18682</v>
@@ -4657,13 +4682,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4677,13 +4702,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>74975</v>
@@ -4691,19 +4716,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>75530</v>
@@ -4711,7 +4736,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>8486660</v>
@@ -4719,19 +4744,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4739,10 +4764,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4750,18 +4775,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4770,20 +4795,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4801,7 +4826,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4822,7 +4847,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4843,7 +4868,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4861,7 +4886,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4882,7 +4907,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4900,7 +4925,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4918,7 +4943,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5046,62 +5071,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>4112.9711064000003</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>4021.5717484800002</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5124,16 +5149,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5148,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5158,40 +5183,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5204,29 +5229,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5236,12 +5261,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5251,29 +5276,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.39325092997635303</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5281,7 +5306,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5292,58 +5317,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.45345924071023569</v>
+        <v>0.44335471991089404</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-26.16309762213902</v>
+        <v>-25.580100209440925</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5352,18 +5377,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.22591626294706857</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9399611420101597E-2</v>
+        <v>6.0753391096086219E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5373,62 +5398,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91012070986882165</v>
+        <v>0.91600781186000568</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.637638975893593</v>
+        <v>1.6482320187408581</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0707302469044961</v>
-      </c>
-      <c r="G29" s="274">
+        <v>1.0776562492470656</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4240338920813853</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>1.4332452336877028</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5438,25 +5463,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5466,7 +5491,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5476,14 +5501,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5493,7 +5518,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5508,14 +5533,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6468,12 +6493,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6500,16 +6525,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6527,7 +6552,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6560,7 +6585,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6571,7 +6596,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6723,7 +6748,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6774,7 +6799,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6825,7 +6850,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6876,7 +6901,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6927,7 +6952,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6978,7 +7003,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7029,7 +7054,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7080,7 +7105,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7131,7 +7156,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7182,7 +7207,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7233,7 +7258,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7284,7 +7309,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7335,7 +7360,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7386,7 +7411,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7437,7 +7462,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7488,7 +7513,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7539,7 +7564,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7590,7 +7615,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7641,7 +7666,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7794,7 +7819,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7845,7 +7870,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7947,7 +7972,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8151,7 +8176,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8202,7 +8227,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8253,7 +8278,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8304,7 +8329,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8355,7 +8380,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8406,7 +8431,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8424,7 +8449,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8475,7 +8500,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8526,7 +8551,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8577,7 +8602,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8628,7 +8653,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8679,7 +8704,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8730,7 +8755,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8781,7 +8806,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8798,50 +8823,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>2.9689523879764543</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.26325011800938491</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8850,11 +8875,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>2.9689523879764543</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8901,167 +8926,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>4.4812531008576082</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>-5.819015167285702</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.10874927403338228</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.16502593515322755</v>
-      </c>
-      <c r="E54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.176649435381835</v>
-      </c>
-      <c r="F54" s="156">
-        <f t="shared" si="44"/>
-        <v>1.5416065535995078</v>
-      </c>
-      <c r="G54" s="156">
-        <f t="shared" si="44"/>
-        <v>1.6868958703404804</v>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.53839203570202543</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.891610977707887</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>-6.4657579830726294E-5</v>
+      </c>
+      <c r="E55" s="156">
         <f t="shared" si="45"/>
-        <v>-28.169831951149764</v>
-      </c>
-      <c r="E55" s="157">
+        <v>6.3761964366470809E-4</v>
+      </c>
+      <c r="F55" s="156">
         <f t="shared" si="45"/>
-        <v>0.34666952040489135</v>
-      </c>
-      <c r="F55" s="157">
+        <v>1.0449203297137567E-3</v>
+      </c>
+      <c r="G55" s="156">
         <f t="shared" si="45"/>
-        <v>0.13256467959853904</v>
-      </c>
-      <c r="G55" s="157">
+        <v>1.2828702352096703E-3</v>
+      </c>
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>0.1488859647249248</v>
-      </c>
-      <c r="H55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9069,112 +9095,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-4.2363371114353045E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-0.53839203570202543</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>-1.8081800440937962E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v>-28.169831951149764</v>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>0.31017316762488378</v>
-      </c>
-      <c r="F56" s="153">
+        <v>0.34666952040489135</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>0.38388895116596355</v>
-      </c>
-      <c r="G56" s="153">
+        <v>0.13256467959853904</v>
+      </c>
+      <c r="G56" s="157">
         <f t="shared" si="46"/>
-        <v>0.67547153335661891</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v>0.1488859647249248</v>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-4.2363371114353045E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.8081800440937962E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.31017316762488378</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.38388895116596355</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.67547153335661891</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>9.0125804646393277</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>5.7272795295805388</v>
       </c>
-      <c r="E57" s="158">
-        <f t="shared" si="47"/>
+      <c r="E58" s="158">
+        <f t="shared" si="48"/>
         <v>5.5416670782714181</v>
       </c>
-      <c r="F57" s="158">
-        <f t="shared" si="47"/>
+      <c r="F58" s="158">
+        <f t="shared" si="48"/>
         <v>0.61146228461091978</v>
       </c>
-      <c r="G57" s="158">
-        <f t="shared" si="47"/>
+      <c r="G58" s="158">
+        <f t="shared" si="48"/>
         <v>0.55054248818999008</v>
       </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>-2.2105398354594151E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>-18.238651102464331</v>
+      </c>
+      <c r="E60" s="274">
+        <f t="shared" si="50"/>
+        <v>75.82002922034799</v>
+      </c>
+      <c r="F60" s="274">
+        <f t="shared" si="50"/>
+        <v>78.938864628820966</v>
+      </c>
+      <c r="G60" s="274">
+        <f t="shared" si="50"/>
+        <v>55.523976849937988</v>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>-2.3100018146125802E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>2172</v>
+      </c>
+      <c r="E61" s="274">
+        <f t="shared" si="51"/>
+        <v>57.870235090981538</v>
+      </c>
+      <c r="F61" s="274">
+        <f t="shared" si="51"/>
+        <v>57.04132875857767</v>
+      </c>
+      <c r="G61" s="274">
+        <f t="shared" si="51"/>
+        <v>33.139313766019015</v>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9737,7 +9953,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10420,6 +10638,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10459,8 +10678,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10478,7 +10697,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10493,7 +10712,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10507,7 +10726,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10517,7 +10736,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10535,10 +10754,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10547,22 +10766,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6255199.4357668348</v>
+        <f>(E49-I49-E53)</f>
+        <v>5850393.1500000004</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26263950188709528</v>
+        <v>0.31035791080073138</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10572,20 +10792,21 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9269419992950412</v>
+        <v>2.7376951738207671</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10603,7 +10824,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10622,32 +10843,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10664,7 +10885,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10675,7 +10896,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10692,7 +10913,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10703,7 +10924,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10720,7 +10941,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10731,7 +10952,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10748,7 +10969,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10759,7 +10980,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10776,7 +10997,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10808,7 +11029,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10830,7 +11051,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10851,7 +11072,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10876,7 +11097,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10903,7 +11124,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10924,7 +11145,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10941,7 +11162,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10953,13 +11174,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10981,7 +11202,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -11001,7 +11222,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11010,7 +11231,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11030,7 +11251,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11043,7 +11264,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11063,7 +11284,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11109,7 +11330,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11118,7 +11339,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11134,7 +11355,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11144,7 +11365,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11161,7 +11382,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11171,7 +11392,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11188,7 +11409,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11198,7 +11419,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11218,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11228,7 +11449,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11245,7 +11466,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11255,7 +11476,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11281,7 +11502,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11308,7 +11529,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11335,7 +11556,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11356,7 +11577,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11377,7 +11598,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11398,7 +11619,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11419,7 +11640,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11436,7 +11657,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11454,7 +11675,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11473,7 +11694,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11492,7 +11713,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11509,7 +11730,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11522,7 +11743,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11539,7 +11760,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11552,7 +11773,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11569,7 +11790,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11596,7 +11817,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11612,14 +11833,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11636,7 +11857,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11666,7 +11887,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11677,14 +11898,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11692,30 +11913,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11732,11 +11953,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11746,7 +11967,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11767,7 +11988,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11788,7 +12009,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11809,7 +12030,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11824,7 +12045,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11855,11 +12076,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11869,7 +12090,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11890,7 +12111,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11905,7 +12126,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11927,21 +12148,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11951,23 +12172,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11988,7 +12209,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12018,7 +12239,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12039,7 +12260,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12069,7 +12290,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12099,7 +12320,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12130,7 +12351,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12157,12 +12378,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12192,7 +12413,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12222,7 +12443,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12252,7 +12473,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12273,7 +12494,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12304,7 +12525,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12325,28 +12546,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8221773829785637E-2</v>
+        <v>-3.9092888292553564E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8221773829785637E-2</v>
+        <v>-3.9092888292553564E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8221773829785637E-2</v>
+        <v>-3.9092888292553564E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12376,21 +12597,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9399611420101597E-2</v>
+        <v>6.0753391096086219E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9399611420101597E-2</v>
+        <v>6.0753391096086219E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9399611420101597E-2</v>
+        <v>6.0753391096086219E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12407,29 +12628,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12446,24 +12667,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85461825400517322</v>
+        <v>-0.85080803329654275</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85461825400517322</v>
+        <v>-0.85080803329654275</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12474,18 +12695,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1536209779850073</v>
+        <v>2.1675516425773762</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1536209779850073</v>
+        <v>2.1675516425773762</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12504,51 +12725,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-970881.25580360554</v>
+        <v>-966552.68939498113</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42489631345261669</v>
+        <v>-0.42300196035993387</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42489631345261669</v>
+        <v>-0.42300196035993387</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.56509728078217913</v>
+        <v>-0.5625778572248934</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12566,52 +12787,52 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5052559.75620538</v>
+        <v>5052874.8473160472</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8795212091242981</v>
+        <v>1.8796384210829651</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2112014224991743</v>
+        <v>2.2113393189211354</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4081678.5004017744</v>
+        <v>4086322.157921066</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3773952520052517</v>
+        <v>1.3791138731957988</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4546248956716814</v>
+        <v>1.4566364607230313</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6204650023591196</v>
+        <v>1.6224869096421164</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7863051090465578</v>
+        <v>1.7883373585612015</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6461041417169953</v>
+        <v>1.648761461696242</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12621,58 +12842,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2446601.4268148504</v>
+        <v>2462427.230991432</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91012070986882165</v>
+        <v>0.91600781186000568</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0707302469044961</v>
+        <v>1.0776562492470656</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0707302469044961</v>
+        <v>1.0776562492470656</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0707302469044961</v>
+        <v>1.0776562492470656</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4240338920813853</v>
+        <v>1.4332452336877028</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12682,58 +12903,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2885197.9818929085</v>
+        <v>2895409.0809075451</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1437579809370366</v>
+        <v>1.1475608425279022</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2626775712880889</v>
+        <v>1.2671463549850484</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3455976246318078</v>
+        <v>1.350071579444591</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4285176779755271</v>
+        <v>1.4329968039041336</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5350690168991903</v>
+        <v>1.5410033476919724</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12742,7 +12963,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12751,6 +12972,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B312AC-E0D3-4C18-B5E3-7A71F3194AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1923BA6A-1D39-4E08-AC99-3ABB07EC0535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.39325092997635303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81977588376563215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1621500776708874E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5705744879944314E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5672463941809065E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.22591626294706857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>2284983948</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3953,7 +3116,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>8305</v>
@@ -4099,7 +3262,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4235,7 +3398,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4275,7 +3438,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.1</v>
@@ -4293,11 +3456,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0753391096086219E-2</v>
+        <v>6.0747708335067291E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4342,13 +3505,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4417,7 +3580,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4430,7 +3593,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -4537,7 +3700,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4550,7 +3713,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -4736,7 +3899,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>8486660</v>
@@ -4756,7 +3919,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4764,10 +3927,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4777,16 +3940,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4795,10 +3958,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4847,7 +4010,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4868,7 +4031,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4886,7 +4049,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4925,7 +4088,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4943,7 +4106,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5029,8 +4192,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5071,13 +4234,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5086,47 +4249,47 @@
         <v>1.76</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>4021.5717484800002</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5149,16 +4312,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5173,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5183,40 +4346,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5229,29 +4392,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5261,12 +4424,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5274,9 +4437,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5284,91 +4447,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.39325092997635303</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>-2.2105398354594158E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.81977588376563215</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.891610977707887</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>3.1621500776708874E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>9.1167539227411831E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>-0.21618896381965605</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44335471991089404</v>
+        <v>0.44339619437946115</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.580100209440925</v>
+        <v>-25.582493149031809</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.5672463941809065E-4</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5377,18 +4540,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>-0.22591626294706857</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>1.5672463941809065E-4</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0753391096086219E-2</v>
+        <v>6.0747708335067291E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5398,62 +4561,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91600781186000568</v>
+        <v>0.91589759613705213</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6482320187408581</v>
+        <v>1.6480337004719647</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0776562492470656</v>
-      </c>
-      <c r="G29" s="278">
+        <v>1.0775265836906496</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4332452336877028</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>1.4330727830190999</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5463,7 +4626,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5474,14 +4637,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5491,7 +4654,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5501,14 +4664,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5518,7 +4681,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5533,14 +4696,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6484,7 +5647,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6498,7 +5660,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6525,16 +5687,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6552,7 +5714,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6585,7 +5747,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6952,7 +6114,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7003,7 +6165,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7054,7 +6216,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7105,7 +6267,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7207,7 +6369,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7360,7 +6522,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7870,7 +7032,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8380,7 +7542,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8431,7 +7593,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8500,7 +7662,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8704,7 +7866,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8806,7 +7968,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8824,27 +7986,27 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.26325011800938491</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
+        <f>IF(C6="","",C6/C27)</f>
+        <v>9.1167539227411831E-2</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>7.7505233825625464E-2</v>
+      </c>
+      <c r="E50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
+        <v>0.10145791236096267</v>
+      </c>
+      <c r="F50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
+        <v>0.16761437942047988</v>
+      </c>
+      <c r="G50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>0.18550786202171121</v>
       </c>
       <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8875,7 +8037,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8926,7 +8088,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8977,7 +8139,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9028,7 +8190,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9045,7 +8207,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9245,11 +8407,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9295,7 +8457,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9345,7 +8507,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10799,7 +9961,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7376951738207671</v>
+        <v>2.7374390948244378</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10849,7 +10011,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -11007,7 +10169,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11419,7 +10581,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11887,7 +11049,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11901,11 +11063,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11916,11 +11078,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11932,11 +11094,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11953,7 +11115,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12030,7 +11192,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12076,7 +11238,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12111,7 +11273,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12150,19 +11312,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12172,18 +11334,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12260,7 +11422,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12290,7 +11452,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12320,7 +11482,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12383,7 +11545,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12413,7 +11575,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12494,7 +11656,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12525,7 +11687,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12546,28 +11708,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9092888292553564E-2</v>
+        <v>-3.9089231615326195E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9092888292553564E-2</v>
+        <v>-3.9089231615326195E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9092888292553564E-2</v>
+        <v>-3.9089231615326195E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12597,21 +11759,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0753391096086219E-2</v>
+        <v>6.0747708335067291E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0753391096086219E-2</v>
+        <v>6.0747708335067291E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0753391096086219E-2</v>
+        <v>6.0747708335067291E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12633,24 +11795,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12667,24 +11829,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85080803329654275</v>
+        <v>-0.85074463738642725</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85080803329654275</v>
+        <v>-0.85074463738642725</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12695,18 +11857,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1675516425773762</v>
+        <v>2.1672908388285075</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1675516425773762</v>
+        <v>2.1672908388285075</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12725,14 +11887,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12749,21 +11911,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-966552.68939498113</v>
+        <v>-966480.66905076627</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42300196035993387</v>
+        <v>-0.42297044138831136</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42300196035993387</v>
+        <v>-0.42297044138831136</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.5625778572248934</v>
+        <v>-0.56253593809170022</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12791,17 +11953,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5052874.8473160472</v>
+        <v>5052402.2106500473</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8796384210829651</v>
+        <v>1.8794626031449653</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2113393189211354</v>
+        <v>2.2111324742881946</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12812,27 +11974,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4086322.157921066</v>
+        <v>4085921.5415992811</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3791138731957988</v>
+        <v>1.3789780327290282</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4566364607230313</v>
+        <v>1.456492161756654</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6224869096421164</v>
+        <v>1.6223270973282686</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7883373585612015</v>
+        <v>1.7881620328998833</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.648761461696242</v>
+        <v>1.6485965361964943</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12842,21 +12004,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12869,31 +12031,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2462427.230991432</v>
+        <v>2462130.947276413</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91600781186000568</v>
+        <v>0.91589759613705213</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0776562492470656</v>
+        <v>1.0775265836906496</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0776562492470656</v>
+        <v>1.0775265836906496</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0776562492470656</v>
+        <v>1.0775265836906496</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4332452336877028</v>
+        <v>1.4330727830190999</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12903,21 +12065,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12930,31 +12092,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2895409.0809075451</v>
+        <v>2895096.0786390933</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1475608425279022</v>
+        <v>1.1474378144330402</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2671463549850484</v>
+        <v>1.2670093727236518</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.350071579444591</v>
+        <v>1.3499268405094591</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4329968039041336</v>
+        <v>1.4328443082952664</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5410033476919724</v>
+        <v>1.5408346596077971</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12963,7 +12125,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1923BA6A-1D39-4E08-AC99-3ABB07EC0535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45A6B27-2F17-4743-A310-BBEF433074E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>2284983948</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3116,7 +3136,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>8305</v>
@@ -3220,9 +3240,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3246,7 +3266,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3262,7 +3282,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3277,10 +3297,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>1937845</v>
       </c>
@@ -3300,9 +3321,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3373,10 +3394,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>9956528</v>
       </c>
@@ -3398,9 +3420,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>9957299</v>
       </c>
@@ -3422,7 +3444,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3438,7 +3460,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.1</v>
@@ -3456,11 +3478,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.0747708335067291E-2</v>
+        <v>6.1091027941022606E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3505,13 +3527,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3531,7 +3553,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>163001</v>
@@ -3543,7 +3565,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>2576350</v>
@@ -3580,7 +3602,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3593,7 +3615,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -3629,7 +3651,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3700,7 +3722,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3713,7 +3735,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -3768,7 +3790,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>116537</v>
@@ -3899,7 +3921,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>8486660</v>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3927,10 +3949,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3938,7 +3960,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3946,10 +3968,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3971,7 +3993,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4010,7 +4032,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4031,7 +4053,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4049,7 +4071,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4088,7 +4110,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4106,7 +4128,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4129,28 +4151,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4192,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4234,7 +4261,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4246,15 +4273,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4274,7 +4301,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4287,7 +4314,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4021.5717484800002</v>
+        <v>3998.7219089999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4321,7 +4348,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4336,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4346,40 +4373,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4392,29 +4419,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4424,12 +4451,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4439,7 +4466,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4447,21 +4474,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>-2.2105398354594158E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4469,69 +4496,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.891610977707887</v>
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>9.1167539227411831E-2</v>
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>-0.21618896381965605</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44339619437946115</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.582493149031809</v>
+        <v>-25.438724550543682</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4540,18 +4567,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0747708335067291E-2</v>
+        <v>6.1091027941022606E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4561,40 +4588,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91589759613705213</v>
+        <v>0.91732353225373886</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6480337004719647</v>
+        <v>1.6505994794246897</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0775265836906496</v>
+        <v>1.0792041555926339</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4330727830190999</v>
+        <v>1.4353038951519042</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4602,21 +4629,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4626,25 +4653,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4654,7 +4681,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4664,14 +4691,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4681,7 +4708,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4696,14 +4723,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5603,27 +5630,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5655,12 +5682,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5687,16 +5714,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5714,7 +5741,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5747,7 +5774,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5758,7 +5785,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6114,7 +6141,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6165,7 +6192,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6216,7 +6243,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6267,7 +6294,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6369,7 +6396,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6522,7 +6549,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6777,7 +6804,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6828,7 +6855,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6882,24 +6909,24 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>9518344</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>11924356</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>11894373</v>
       </c>
       <c r="E27" s="65">
-        <f t="shared" si="20"/>
-        <v>11807980</v>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>11746703</v>
       </c>
       <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>6136353</v>
+        <v>6085124</v>
       </c>
       <c r="G27" s="65">
         <f t="shared" si="20"/>
-        <v>3771231</v>
+        <v>3748036</v>
       </c>
       <c r="H27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6930,50 +6957,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>8648319</v>
-      </c>
-      <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>11098580</v>
-      </c>
-      <c r="E28" s="199">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v>11219637</v>
-      </c>
-      <c r="F28" s="199">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v>5753012</v>
-      </c>
-      <c r="G28" s="199">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
-        <v>3489602</v>
+        <f>Fin_Analysis!C13</f>
+        <v>2576350</v>
+      </c>
+      <c r="D28" s="199" t="str">
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v/>
+      </c>
+      <c r="E28" s="199" t="str">
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v/>
+      </c>
+      <c r="F28" s="199" t="str">
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v/>
+      </c>
+      <c r="G28" s="199" t="str">
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6981,50 +7008,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>2576350</v>
+        <f>Fin_Analysis!C18</f>
+        <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7032,101 +7059,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v/>
-      </c>
-      <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v/>
-      </c>
-      <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v/>
-      </c>
-      <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v/>
+      <c r="D30" s="199">
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>1937845</v>
+      </c>
+      <c r="E30" s="199">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>2024596</v>
+      </c>
+      <c r="F30" s="199">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>9408613</v>
+      </c>
+      <c r="G30" s="199">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v>6338479</v>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>959583</v>
+        <f>Fin_Analysis!I15</f>
+        <v>289150</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>1937845</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>29464</v>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>2024596</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>1195554</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>9408613</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>2707794</v>
       </c>
       <c r="G31" s="199">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v>6338479</v>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
+        <v>1053656</v>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7134,101 +7161,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>75530</v>
+        <f>Fin_Analysis!I34</f>
+        <v>74975</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>29983</v>
       </c>
       <c r="E32" s="199">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>61277</v>
       </c>
       <c r="F32" s="199">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>51229</v>
       </c>
       <c r="G32" s="199">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>23195</v>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>289150</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>29464</v>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>1195554</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>2707794</v>
-      </c>
-      <c r="G33" s="199">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v>1053656</v>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>364125</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>59447</v>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>1256831</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>2759023</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v>1076851</v>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7236,50 +7263,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>74975</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>29983</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>9956528</v>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>61277</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>9722107</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>51229</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>-3323489</v>
       </c>
       <c r="G34" s="199">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
-        <v>23195</v>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <v>-2590443</v>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7287,50 +7314,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>364125</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>59447</v>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>1256831</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>2759023</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v>1076851</v>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>9957299</v>
+      </c>
+      <c r="E35" s="199">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v>9714578</v>
+      </c>
+      <c r="F35" s="199">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v>-3329901</v>
+      </c>
+      <c r="G35" s="199">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v>-2595281</v>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7338,50 +7365,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>8483231</v>
-      </c>
-      <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>9956528</v>
-      </c>
-      <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>9722107</v>
-      </c>
-      <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>-3323489</v>
-      </c>
-      <c r="G36" s="199">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
-        <v>-2590443</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="199" t="str">
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v/>
+      </c>
+      <c r="E36" s="199" t="str">
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v/>
+      </c>
+      <c r="F36" s="199" t="str">
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v/>
+      </c>
+      <c r="G36" s="199" t="str">
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
+        <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7389,272 +7416,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>-3429</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>9957299</v>
-      </c>
-      <c r="E37" s="199">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v>9714578</v>
-      </c>
-      <c r="F37" s="199">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v>-3329901</v>
-      </c>
-      <c r="G37" s="199">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v>-2595281</v>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>3296348</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>6221996</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>-5.69117702378511E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>3296348</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>-5.69117702378511E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.16194005626487773</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.22601006833815659</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.38711436880007699</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.48116690704452447</v>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.81977588376563215</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.81073036139363774</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.29749343287593705</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12077496181484258</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.13485983993550535</v>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.39325092997635303</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.16194005626487773</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.22601006833815659</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.38711436880007699</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.48116690704452447</v>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.7240012984202553</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7662,50 +7689,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.81977588376563215</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.81073036139363774</v>
+        <f t="shared" si="37"/>
+        <v>3.2763471110149316E-2</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.29749343287593705</v>
+        <f t="shared" si="37"/>
+        <v>0.11280678924185297</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12077496181484258</v>
+        <f t="shared" si="37"/>
+        <v>0.13651084400135727</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.13485983993550535</v>
+        <f t="shared" si="37"/>
+        <v>0.15480000514584907</v>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7713,50 +7740,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>3.1621500776708874E-3</v>
+      </c>
+      <c r="D44" s="153">
+        <f t="shared" si="38"/>
+        <v>1.2114260982471326E-2</v>
+      </c>
+      <c r="E44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.7240012984202553</v>
-      </c>
-      <c r="E44" s="153">
-        <f t="shared" si="36"/>
+      <c r="F44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
-        <f t="shared" si="36"/>
+      <c r="G44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7764,50 +7791,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>9.5705744879944314E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.5672463941809065E-4</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.2763471110149316E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.0409002380437138E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.11280678924185297</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.13651084400135727</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.15480000514584907</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7815,221 +7842,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>3.1621500776708874E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>-0.22591626294706857</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.2114260982471326E-2</v>
+        <f t="shared" si="40"/>
+        <v>-1.8119584505518287</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.36368970954405339</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.35559982538372314</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.22917324787412111</v>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.5672463941809065E-4</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>7.0409002380437138E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>-0.22591626294706857</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-1.8119584505518287</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.36368970954405339</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.35559982538372314</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.22917324787412111</v>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>7.7700606833163877E-2</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.10198717035750372</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.16902547918497635</v>
+      </c>
+      <c r="G48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.1866558912454416</v>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>2.9689523879764543</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>9.1167539227411831E-2</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>7.7505233825625464E-2</v>
-      </c>
-      <c r="E50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.10145791236096267</v>
-      </c>
-      <c r="F50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.16761437942047988</v>
-      </c>
-      <c r="G50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.18550786202171121</v>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8037,522 +8064,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>2.9689523879764543</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>4.4812531008576082</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>-5.819015167285702</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>4.4812531008576082</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>-5.819015167285702</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>-6.4820566834418263E-5</v>
+      </c>
+      <c r="E53" s="156">
+        <f t="shared" si="45"/>
+        <v>6.4094580411201338E-4</v>
+      </c>
+      <c r="F53" s="156">
+        <f t="shared" si="45"/>
+        <v>1.0537172290983718E-3</v>
+      </c>
+      <c r="G53" s="156">
+        <f t="shared" si="45"/>
+        <v>1.2908093732290726E-3</v>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-0.53839203570202543</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>-28.169831951149764</v>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.34666952040489135</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.13256467959853904</v>
+      </c>
+      <c r="G54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.1488859647249248</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.891610977707887</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>-6.4657579830726294E-5</v>
-      </c>
-      <c r="E55" s="156">
-        <f t="shared" si="45"/>
-        <v>6.3761964366470809E-4</v>
-      </c>
-      <c r="F55" s="156">
-        <f t="shared" si="45"/>
-        <v>1.0449203297137567E-3</v>
-      </c>
-      <c r="G55" s="156">
-        <f t="shared" si="45"/>
-        <v>1.2828702352096703E-3</v>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-4.2363371114353045E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.8081800440937962E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.31017316762488378</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.38388895116596355</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.67547153335661891</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.53839203570202543</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>-28.169831951149764</v>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.34666952040489135</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.13256467959853904</v>
-      </c>
-      <c r="G56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.1488859647249248</v>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-4.2363371114353045E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-1.8081800440937962E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.31017316762488378</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.38388895116596355</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.67547153335661891</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>9.0125804646393277</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>5.7272795295805388</v>
-      </c>
-      <c r="E58" s="158">
-        <f t="shared" si="48"/>
-        <v>5.5416670782714181</v>
-      </c>
-      <c r="F58" s="158">
-        <f t="shared" si="48"/>
-        <v>0.61146228461091978</v>
-      </c>
-      <c r="G58" s="158">
-        <f t="shared" si="48"/>
-        <v>0.55054248818999008</v>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>-18.238651102464331</v>
+      </c>
+      <c r="E58" s="274">
+        <f t="shared" si="49"/>
+        <v>75.82002922034799</v>
+      </c>
+      <c r="F58" s="274">
+        <f t="shared" si="49"/>
+        <v>78.938864628820966</v>
+      </c>
+      <c r="G58" s="274">
+        <f t="shared" si="49"/>
+        <v>55.523976849937988</v>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>2172</v>
+      </c>
+      <c r="E59" s="274">
+        <f t="shared" si="50"/>
+        <v>57.870235090981538</v>
+      </c>
+      <c r="F59" s="274">
+        <f t="shared" si="50"/>
+        <v>57.04132875857767</v>
+      </c>
+      <c r="G59" s="274">
+        <f t="shared" si="50"/>
+        <v>33.139313766019015</v>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>-2.2105398354594151E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>-18.238651102464331</v>
-      </c>
-      <c r="E60" s="274">
-        <f t="shared" si="50"/>
-        <v>75.82002922034799</v>
-      </c>
-      <c r="F60" s="274">
-        <f t="shared" si="50"/>
-        <v>78.938864628820966</v>
-      </c>
-      <c r="G60" s="274">
-        <f t="shared" si="50"/>
-        <v>55.523976849937988</v>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>-2.3100018146125802E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>2172</v>
-      </c>
-      <c r="E61" s="274">
-        <f t="shared" si="51"/>
-        <v>57.870235090981538</v>
-      </c>
-      <c r="F61" s="274">
-        <f t="shared" si="51"/>
-        <v>57.04132875857767</v>
-      </c>
-      <c r="G61" s="274">
-        <f t="shared" si="51"/>
-        <v>33.139313766019015</v>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9112,12 +9043,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9799,27 +9726,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9961,7 +9891,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7374390948244378</v>
+        <v>2.7372683754935516</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10011,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10058,7 +9988,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10086,7 +10016,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10169,7 +10099,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10191,7 +10121,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10259,7 +10189,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10581,7 +10511,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10718,7 +10648,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11049,7 +10979,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11115,7 +11045,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11150,7 +11080,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11171,7 +11101,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11192,7 +11122,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11207,7 +11137,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11238,7 +11168,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11252,7 +11182,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11273,7 +11203,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11288,7 +11218,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11310,7 +11240,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11318,11 +11248,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11350,7 +11280,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11422,7 +11352,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11452,7 +11382,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11482,7 +11412,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11540,12 +11470,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11575,7 +11505,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11605,7 +11535,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11656,7 +11586,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11687,7 +11617,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11708,28 +11638,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9089231615326195E-2</v>
+        <v>-3.931014693811085E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9089231615326195E-2</v>
+        <v>-3.931014693811085E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9089231615326195E-2</v>
+        <v>-3.931014693811085E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11759,21 +11689,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0747708335067291E-2</v>
+        <v>6.1091027941022606E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0747708335067291E-2</v>
+        <v>6.1091027941022606E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0747708335067291E-2</v>
+        <v>6.1091027941022606E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11790,27 +11720,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11829,24 +11759,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85074463738642725</v>
+        <v>-0.84971415200806244</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.85074463738642725</v>
+        <v>-0.84971415200806244</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11857,18 +11787,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1672908388285075</v>
+        <v>2.1706650351311119</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1672908388285075</v>
+        <v>2.1706650351311119</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11887,14 +11817,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11907,31 +11837,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-966480.66905076627</v>
+        <v>-965309.99555585161</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42297044138831136</v>
+        <v>-0.4224581080321233</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42297044138831136</v>
+        <v>-0.4224581080321233</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.56253593809170022</v>
+        <v>-0.56185455259300443</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11949,21 +11879,21 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5052402.2106500473</v>
+        <v>5052087.1195393801</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8794626031449653</v>
+        <v>1.8793453911862987</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2111324742881946</v>
+        <v>2.2109945778662339</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11974,27 +11904,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4085921.5415992811</v>
+        <v>4086777.1239835285</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3789780327290282</v>
+        <v>1.3793050950200214</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.456492161756654</v>
+        <v>1.4568872831541755</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6223270973282686</v>
+        <v>1.6227118764941428</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7881620328998833</v>
+        <v>1.7885364698341104</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6485965361964943</v>
+        <v>1.6491400252732293</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12004,21 +11934,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12031,31 +11961,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2462130.947276413</v>
+        <v>2465964.1721440628</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91589759613705213</v>
+        <v>0.91732353225373886</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0775265836906496</v>
+        <v>1.0792041555926339</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0775265836906496</v>
+        <v>1.0792041555926339</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0775265836906496</v>
+        <v>1.0792041555926339</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4330727830190999</v>
+        <v>1.4353038951519042</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12065,21 +11995,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12092,31 +12022,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2895096.0786390933</v>
+        <v>2897464.1140983426</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1474378144330402</v>
+        <v>1.1483143136368801</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2670093727236518</v>
+        <v>1.2680457193734047</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3499268405094591</v>
+        <v>1.3509580160433883</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4328443082952664</v>
+        <v>1.4338703127133723</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5408346596077971</v>
+        <v>1.5422219602125669</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12125,7 +12055,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45A6B27-2F17-4743-A310-BBEF433074E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20826F9-A637-4048-98B5-784C067DDE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>2284983948</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>242</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>269</v>
+      <c r="C19" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>270</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,499 +3048,503 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>867764</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>924200</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>1198013</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>1028541</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>699593</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>341249</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>149665</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>270763</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>398163</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>336621</v>
       </c>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>345571</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>398159</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>356401</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>124222</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>94347</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>365801</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>351118</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>8305</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>30280</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>135144</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>140407</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>108297</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2058</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>8397</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-252904</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>1593322</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>134473</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>105067</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>134337</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>170139</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>11098580</v>
       </c>
-      <c r="E34" s="150">
+      <c r="E34" s="149">
         <v>11219637</v>
       </c>
-      <c r="F34" s="150">
+      <c r="F34" s="149">
         <v>5753012</v>
       </c>
-      <c r="G34" s="150">
+      <c r="G34" s="149">
         <v>3489602</v>
       </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>1035113</v>
+      </c>
+      <c r="D37" s="149">
         <v>1937845</v>
       </c>
-      <c r="E37" s="150">
+      <c r="E37" s="149">
         <v>2024596</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>9408613</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="149">
         <v>6338479</v>
       </c>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>29983</v>
       </c>
-      <c r="E38" s="150">
+      <c r="E38" s="149">
         <v>61277</v>
       </c>
-      <c r="F38" s="150">
+      <c r="F38" s="149">
         <v>51229</v>
       </c>
-      <c r="G38" s="150">
+      <c r="G38" s="149">
         <v>23195</v>
       </c>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>29464</v>
       </c>
-      <c r="E39" s="150">
+      <c r="E39" s="149">
         <v>1195554</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>2707794</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>1053656</v>
       </c>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>29983</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="149">
         <v>61277</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>51229</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>23195</v>
       </c>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>8483231</v>
+      </c>
+      <c r="D41" s="149">
         <v>9956528</v>
       </c>
-      <c r="E41" s="150">
+      <c r="E41" s="149">
         <v>9722107</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>-3323489</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>-2590443</v>
       </c>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>-3429</v>
+      </c>
+      <c r="D42" s="149">
         <v>9957299</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="149">
         <v>9714578</v>
       </c>
-      <c r="F42" s="150">
+      <c r="F42" s="149">
         <v>-3329901</v>
       </c>
-      <c r="G42" s="150">
+      <c r="G42" s="149">
         <v>-2595281</v>
       </c>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.1</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1091027941022606E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>6.1747591389856353E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3615,7 +3627,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -3645,7 +3657,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3657,7 +3669,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3676,8 +3688,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3735,7 +3747,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -3755,7 +3767,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3769,7 +3781,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3784,7 +3796,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3840,14 +3852,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3875,7 +3887,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3909,21 +3921,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214">
         <v>75530</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>266</v>
+      </c>
+      <c r="C83" s="214">
         <v>8486660</v>
       </c>
     </row>
@@ -3941,20 +3953,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3984,10 +3996,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3999,12 +4011,12 @@
         <f>C25</f>
         <v>867764</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>867764</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>867764</v>
       </c>
@@ -4017,75 +4029,75 @@
         <f>C26</f>
         <v>341249</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>341249</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>341249</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>711372</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>711372</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>711372</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>8305</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>8305</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>136</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>136</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>136</v>
       </c>
@@ -4098,12 +4110,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4116,12 +4128,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2744</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>2744</v>
       </c>
@@ -4130,16 +4142,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.1</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.1</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.1</v>
       </c>
@@ -4220,7 +4232,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4272,11 +4284,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>1.75</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>1.73</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4314,7 +4326,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>3998.7219089999999</v>
+        <v>3953.0222300400001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4324,11 +4336,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4350,11 +4362,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0008</v>
       </c>
@@ -4362,8 +4374,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4372,10 +4384,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4383,7 +4395,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4391,13 +4403,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4406,12 +4418,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4421,7 +4433,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4432,7 +4444,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4440,13 +4452,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4456,129 +4468,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>-2.2105398354594158E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.891610977707887</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>9.1167539227411831E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.43621624887326593</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.438724550543682</v>
+        <v>-25.168234052875771</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>-1.5540778323012416</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1091027941022606E-2</v>
+        <v>6.1747591389856353E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4595,10 +4607,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4606,22 +4618,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91732353225373886</v>
-      </c>
-      <c r="D29" s="129">
+        <v>0.91942516909939453</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>1.6505994794246897</v>
+        <v>1.6543810903410219</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0792041555926339</v>
+        <v>1.0816766695286995</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4353038951519042</v>
+        <v>1.438592252470454</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4629,23 +4641,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -4653,9 +4665,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4663,17 +4675,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>disagree</v>
       </c>
@@ -4681,26 +4693,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4708,9 +4720,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly disagree</v>
       </c>
@@ -4723,16 +4735,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -5684,10 +5696,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5713,16 +5725,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5736,11 +5748,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5765,7 +5777,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5773,7 +5785,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5837,47 +5849,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>867764</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>924200</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1198013</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1028541</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>699593</v>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5939,47 +5951,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>341249</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>149665</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>270763</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>398163</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>336621</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5990,47 +6002,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>526515</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>774535</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>927250</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>630378</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>362972</v>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6041,47 +6053,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>345571</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>398159</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>356401</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>124222</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>94347</v>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6092,47 +6104,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>365801</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>351118</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6141,49 +6153,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2744</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11196</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6191,50 +6203,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>1.52153213590132E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.47649649878590633</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.49211066938508041</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.38397325301997021</v>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6242,50 +6254,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-187601</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>14062</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>570849</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>506156</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>268625</v>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6293,50 +6305,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232" t="str">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.97536651548833408</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>0.12781237405068793</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.8842475570032573</v>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6347,47 +6359,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-252904</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>1593322</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6396,49 +6408,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>8305</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>30280</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>135144</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>140407</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>108297</v>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6449,47 +6461,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.15496494438580075</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>0.11368426747457261</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6500,47 +6512,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>134473</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>105067</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6549,49 +6561,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.15480821974638265</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0.18409326985500973</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6602,47 +6614,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>134337</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>170139</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6653,47 +6665,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-196042</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1674612</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>435705</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>365749</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>160328</v>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6704,47 +6716,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-1.3589688379138714</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.27276728215804003</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.26669986903779236</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>0.17187993590559081</v>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6755,7 +6767,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-147031.5</v>
       </c>
@@ -6803,50 +6815,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.88293288236319811</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>0.19126778200350514</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>1.281254677910284</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6910,7 +6922,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>9518344</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6963,43 +6975,43 @@
         <f>Fin_Analysis!C13</f>
         <v>2576350</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7014,43 +7026,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7059,49 +7071,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>1035113</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>1937845</v>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>2024596</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>9408613</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="198">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>6338479</v>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7116,43 +7128,43 @@
         <f>Fin_Analysis!I15</f>
         <v>289150</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>29464</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1195554</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>2707794</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="198">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1053656</v>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7167,43 +7179,43 @@
         <f>Fin_Analysis!I34</f>
         <v>74975</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>29983</v>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>61277</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>51229</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="198">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>23195</v>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7267,45 +7279,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>8483231</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>9956528</v>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>9722107</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>-3323489</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="198">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>-2590443</v>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7318,45 +7330,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>-3429</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>9957299</v>
       </c>
-      <c r="E35" s="199">
+      <c r="E35" s="198">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>9714578</v>
       </c>
-      <c r="F35" s="199">
+      <c r="F35" s="198">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>-3329901</v>
       </c>
-      <c r="G35" s="199">
+      <c r="G35" s="198">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>-2595281</v>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7371,43 +7383,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7469,47 +7481,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>-5.69117702378511E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7518,7 +7530,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7538,47 +7550,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.16194005626487773</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.22601006833815659</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.38711436880007699</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.48116690704452447</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7587,49 +7599,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.81073036139363774</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.29749343287593705</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.12077496181484258</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.13485983993550535</v>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7640,47 +7652,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>1.7240012984202553</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7691,47 +7703,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>3.2763471110149316E-2</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>0.11280678924185297</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>0.13651084400135727</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>0.15480000514584907</v>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7742,47 +7754,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.2114260982471326E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7791,49 +7803,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>7.0409002380437138E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7844,47 +7856,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-1.8119584505518287</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.36368970954405339</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.35559982538372314</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>0.22917324787412111</v>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7893,9 +7905,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7910,50 +7924,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>9.1167539227411831E-2</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>7.7700606833163877E-2</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>0.10198717035750372</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>0.16902547918497635</v>
       </c>
-      <c r="G48" s="272">
+      <c r="G48" s="269">
         <f t="shared" si="41"/>
         <v>0.1866558912454416</v>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7962,49 +7976,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>2.9689523879764543</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8013,49 +8027,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8064,49 +8078,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>4.4812531008576082</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>-5.819015167285702</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8115,7 +8129,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8132,49 +8146,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.891610977707887</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>-6.4820566834418263E-5</v>
       </c>
-      <c r="E53" s="156">
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
         <v>6.4094580411201338E-4</v>
       </c>
-      <c r="F53" s="156">
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
         <v>1.0537172290983718E-3</v>
       </c>
-      <c r="G53" s="156">
+      <c r="G53" s="155">
         <f t="shared" si="45"/>
         <v>1.2908093732290726E-3</v>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8184,47 +8198,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-0.53839203570202543</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>-28.169831951149764</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>0.34666952040489135</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>0.13256467959853904</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="156">
         <f t="shared" si="46"/>
         <v>0.1488859647249248</v>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8234,47 +8248,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-4.2363371114353045E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-1.8081800440937962E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>0.31017316762488378</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>0.38388895116596355</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>0.67547153335661891</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8284,47 +8298,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8332,149 +8346,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>-2.2105398354594151E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>-18.238651102464331</v>
       </c>
-      <c r="E58" s="274">
+      <c r="E58" s="271">
         <f t="shared" si="49"/>
         <v>75.82002922034799</v>
       </c>
-      <c r="F58" s="274">
+      <c r="F58" s="271">
         <f t="shared" si="49"/>
         <v>78.938864628820966</v>
       </c>
-      <c r="G58" s="274">
+      <c r="G58" s="271">
         <f t="shared" si="49"/>
         <v>55.523976849937988</v>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>-2.3100018146125802E-2</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>2172</v>
       </c>
-      <c r="E59" s="274">
+      <c r="E59" s="271">
         <f t="shared" si="50"/>
         <v>57.870235090981538</v>
       </c>
-      <c r="F59" s="274">
+      <c r="F59" s="271">
         <f t="shared" si="50"/>
         <v>57.04132875857767</v>
       </c>
-      <c r="G59" s="274">
+      <c r="G59" s="271">
         <f t="shared" si="50"/>
         <v>33.139313766019015</v>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9770,8 +9784,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9807,8 +9821,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>8483231</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9820,8 +9834,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>8486660</v>
       </c>
       <c r="K3" s="24"/>
@@ -9831,8 +9845,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>-3429</v>
       </c>
       <c r="E4" s="37"/>
@@ -9891,7 +9905,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7372683754935516</v>
+        <v>2.7350673373502898</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9919,11 +9933,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9966,7 +9980,7 @@
         <f>Inputs!C48</f>
         <v>4923071</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9994,7 +10008,7 @@
         <f>Inputs!C49</f>
         <v>163001</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10022,7 +10036,7 @@
         <f>Inputs!C50</f>
         <v>2576350</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10050,7 +10064,7 @@
         <f>Inputs!C51</f>
         <v>924658</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10063,7 +10077,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10078,7 +10092,7 @@
         <f>Inputs!C52</f>
         <v>43659</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10127,7 +10141,7 @@
         <f>Inputs!C54</f>
         <v>17580</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10149,7 +10163,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10170,7 +10184,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10178,7 +10192,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10195,7 +10209,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10203,7 +10217,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10222,7 +10236,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10243,7 +10257,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10408,7 +10422,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>959583</v>
       </c>
@@ -10437,7 +10451,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10463,7 +10477,7 @@
         <f>Inputs!C61</f>
         <v>98517</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10490,7 +10504,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10533,7 +10547,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10547,7 +10561,7 @@
         <f>Inputs!C64</f>
         <v>28511</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10574,7 +10588,7 @@
         <f>Inputs!C65</f>
         <v>232091</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10582,7 +10596,7 @@
         <f t="shared" si="1"/>
         <v>23209.100000000002</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10600,7 +10614,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10608,7 +10622,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10627,7 +10641,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10635,7 +10649,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10654,7 +10668,7 @@
         <f>Inputs!C68</f>
         <v>116537</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10675,7 +10689,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10696,7 +10710,7 @@
         <f>Inputs!C70</f>
         <v>306071</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10717,7 +10731,7 @@
         <f>Inputs!C71</f>
         <v>88298</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10738,7 +10752,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10884,8 +10898,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>75530</v>
       </c>
       <c r="J48" s="8"/>
@@ -10911,8 +10925,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>1035113</v>
       </c>
       <c r="J49" s="87"/>
@@ -10982,7 +10996,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11082,7 +11096,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>4923071</v>
       </c>
@@ -11090,7 +11104,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>4430763.9000000004</v>
       </c>
@@ -11121,11 +11135,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>364125</v>
@@ -11202,12 +11216,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>670988</v>
       </c>
@@ -11286,17 +11300,17 @@
         <f>Data!C6</f>
         <v>867764</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>867764</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>867764</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11307,23 +11321,23 @@
         <f>Data!C8</f>
         <v>341249</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>341249</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>341249</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.39325092997635303</v>
       </c>
@@ -11333,48 +11347,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>526515</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>526515</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>526515</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>711372</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>711372</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>711372</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.81977588376563215</v>
       </c>
@@ -11388,54 +11402,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2744</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>2744</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>2744</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>-187601</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>-187601</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>-187601</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>-0.21618896381965605</v>
       </c>
@@ -11449,55 +11463,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>8305</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>8305</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>8305</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
@@ -11505,29 +11519,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>136</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>136</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>136</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
@@ -11537,27 +11551,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>-196042</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>-196042</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>-196042</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>-0.22591626294706857</v>
       </c>
@@ -11567,49 +11581,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>-0.16943719721030143</v>
       </c>
@@ -11619,69 +11633,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.931014693811085E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>-3.9732624780074229E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.931014693811085E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>-3.9732624780074229E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.931014693811085E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>-3.9732624780074229E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.1</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.1</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.1</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>-1.5540778323012416</v>
       </c>
@@ -11689,23 +11703,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1091027941022606E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>6.1747591389856353E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1091027941022606E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.1747591389856353E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1091027941022606E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.1747591389856353E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11727,7 +11741,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11750,27 +11764,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84971415200806244</v>
+        <v>-0.84716566724101638</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84971415200806244</v>
+        <v>-0.84716566724101638</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11778,27 +11792,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1706650351311119</v>
+        <v>2.1756381438076113</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1706650351311119</v>
+        <v>2.1756381438076113</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11812,25 +11826,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11841,21 +11855,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-965309.99555585161</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>-962414.8127307361</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.4224581080321233</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>-0.42119106069568596</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.4224581080321233</v>
-      </c>
-      <c r="I97" s="123">
+        <v>-0.42119106069568596</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.56185455259300443</v>
+        <v>-0.56016942381740986</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11867,14 +11881,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11883,19 +11897,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5052087.1195393801</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>5048024.7351006661</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8793453911862987</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>1.8778342091161009</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2109945778662339</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>2.2092167166071777</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11904,27 +11918,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4086777.1239835285</v>
+        <v>4085609.92236993</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3793050950200214</v>
+        <v>1.3789842418410603</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4568872831541755</v>
+        <v>1.456643148420415</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6227118764941428</v>
+        <v>1.6223344021659534</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7885364698341104</v>
+        <v>1.7880256559114918</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6491400252732293</v>
+        <v>1.6490472927897679</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11936,25 +11950,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11965,27 +11979,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2465964.1721440628</v>
+        <v>2471613.826799179</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91732353225373886</v>
-      </c>
-      <c r="E103" s="123">
+        <v>0.91942516909939453</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0792041555926339</v>
+        <v>1.0816766695286995</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0792041555926339</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.0816766695286995</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0792041555926339</v>
+        <v>1.0816766695286995</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4353038951519042</v>
+        <v>1.438592252470454</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11997,25 +12011,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -12026,27 +12040,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2897464.1140983426</v>
+        <v>2900010.0194520038</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1483143136368801</v>
-      </c>
-      <c r="E106" s="123">
+        <v>1.1492047054702275</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>1.2680457193734047</v>
+        <v>1.2691599089745571</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3509580160433883</v>
-      </c>
-      <c r="H106" s="123">
+        <v>1.3520055358473264</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>1.4338703127133723</v>
-      </c>
-      <c r="I106" s="123">
+        <v>1.4348511627200957</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>1.5422219602125669</v>
+        <v>1.5438197726301111</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12057,14 +12071,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20826F9-A637-4048-98B5-784C067DDE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217824A9-7423-418A-99C1-035DE3847CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1747591389856353E-2</v>
+        <v>6.1745664287853802E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4375,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43621624887326593</v>
+        <v>0.43622986332241709</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.168234052875771</v>
+        <v>-25.169019561539475</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1747591389856353E-2</v>
+        <v>6.1745664287853802E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4620,20 +4620,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91942516909939453</v>
+        <v>0.91938813081715942</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>1.6543810903410219</v>
+        <v>1.6543144449675782</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0816766695286995</v>
+        <v>1.0816330950790112</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.438592252470454</v>
+        <v>1.4385342999718072</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9905,7 +9905,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7350673373502898</v>
+        <v>2.7349819776848467</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11656,17 +11656,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9732624780074229E-2</v>
+        <v>-3.9731384750802526E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9732624780074229E-2</v>
+        <v>-3.9731384750802526E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9732624780074229E-2</v>
+        <v>-3.9731384750802526E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11707,17 +11707,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1747591389856353E-2</v>
+        <v>6.1745664287853802E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1747591389856353E-2</v>
+        <v>6.1745664287853802E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1747591389856353E-2</v>
+        <v>6.1745664287853802E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11777,14 +11777,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84716566724101638</v>
+        <v>-0.84714469748117904</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84716566724101638</v>
+        <v>-0.84714469748117904</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11805,14 +11805,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1756381438076113</v>
+        <v>2.1755505000250395</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1756381438076113</v>
+        <v>2.1755505000250395</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11855,21 +11855,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-962414.8127307361</v>
+        <v>-962390.99022674747</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42119106069568596</v>
+        <v>-0.42118063501895003</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42119106069568596</v>
+        <v>-0.42118063501895003</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.56016942381740986</v>
+        <v>-0.5601555580308939</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11897,17 +11897,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5048024.7351006661</v>
+        <v>5047867.1895453334</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8778342091161009</v>
+        <v>1.8777756031367683</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2092167166071777</v>
+        <v>2.209147768396198</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11918,27 +11918,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>4085609.92236993</v>
+        <v>4085476.1993185859</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3789842418410603</v>
+        <v>1.378938893135403</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.456643148420415</v>
+        <v>1.4565949681178183</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6223344021659534</v>
+        <v>1.6222810507475329</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7880256559114918</v>
+        <v>1.7879671333772476</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6490472927897679</v>
+        <v>1.6489922103653041</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11979,27 +11979,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2471613.826799179</v>
+        <v>2471514.2598810983</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91942516909939453</v>
+        <v>0.91938813081715942</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0816766695286995</v>
+        <v>1.0816330950790112</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0816766695286995</v>
+        <v>1.0816330950790112</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0816766695286995</v>
+        <v>1.0816330950790112</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.438592252470454</v>
+        <v>1.4385342999718072</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12040,27 +12040,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2900010.0194520038</v>
+        <v>2899905.1903839423</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1492047054702275</v>
+        <v>1.1491635119762811</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>1.2691599089745571</v>
+        <v>1.2691140315984146</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3520055358473264</v>
+        <v>1.3519570729132719</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>1.4348511627200957</v>
+        <v>1.4348001142281293</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>1.5438197726301111</v>
+        <v>1.5437632551685556</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217824A9-7423-418A-99C1-035DE3847CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE57DE2-ED73-40A8-AA20-70D0A8C8C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>2284983948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>2284983948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,515 +3039,516 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>867764</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>924200</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>1198013</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>1028541</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>699593</v>
       </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>341249</v>
+      </c>
+      <c r="D26" s="148">
+        <v>149665</v>
+      </c>
+      <c r="E26" s="148">
+        <v>270763</v>
+      </c>
+      <c r="F26" s="148">
+        <v>398163</v>
+      </c>
+      <c r="G26" s="148">
+        <v>336621</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>345571</v>
+      </c>
+      <c r="D27" s="148">
+        <v>398159</v>
+      </c>
+      <c r="E27" s="148">
+        <v>356401</v>
+      </c>
+      <c r="F27" s="148">
+        <v>124222</v>
+      </c>
+      <c r="G27" s="148">
+        <v>94347</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>341249</v>
-      </c>
-      <c r="D26" s="149">
-        <v>149665</v>
-      </c>
-      <c r="E26" s="149">
-        <v>270763</v>
-      </c>
-      <c r="F26" s="149">
-        <v>398163</v>
-      </c>
-      <c r="G26" s="149">
-        <v>336621</v>
-      </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148">
+        <v>365801</v>
+      </c>
+      <c r="D28" s="148">
+        <v>351118</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>8305</v>
+      </c>
+      <c r="D29" s="148">
+        <v>30280</v>
+      </c>
+      <c r="E29" s="148">
+        <v>135144</v>
+      </c>
+      <c r="F29" s="148">
+        <v>140407</v>
+      </c>
+      <c r="G29" s="148">
+        <v>108297</v>
+      </c>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>2058</v>
+      </c>
+      <c r="D30" s="148">
+        <v>8397</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-252904</v>
+      </c>
+      <c r="D31" s="148">
+        <v>1593322</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>345571</v>
-      </c>
-      <c r="D27" s="149">
-        <v>398159</v>
-      </c>
-      <c r="E27" s="149">
-        <v>356401</v>
-      </c>
-      <c r="F27" s="149">
-        <v>124222</v>
-      </c>
-      <c r="G27" s="149">
-        <v>94347</v>
-      </c>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>134473</v>
+      </c>
+      <c r="D32" s="148">
+        <v>105067</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>365801</v>
-      </c>
-      <c r="D28" s="149">
-        <v>351118</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>8305</v>
-      </c>
-      <c r="D29" s="149">
-        <v>30280</v>
-      </c>
-      <c r="E29" s="149">
-        <v>135144</v>
-      </c>
-      <c r="F29" s="149">
-        <v>140407</v>
-      </c>
-      <c r="G29" s="149">
-        <v>108297</v>
-      </c>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>2058</v>
-      </c>
-      <c r="D30" s="149">
-        <v>8397</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-252904</v>
-      </c>
-      <c r="D31" s="149">
-        <v>1593322</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>134473</v>
-      </c>
-      <c r="D32" s="149">
-        <v>105067</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>134337</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>170139</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>11098580</v>
       </c>
-      <c r="E34" s="149">
+      <c r="E34" s="148">
         <v>11219637</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="148">
         <v>5753012</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="148">
         <v>3489602</v>
       </c>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148">
         <v>1035113</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>1937845</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <v>2024596</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <v>9408613</v>
       </c>
-      <c r="G37" s="149">
+      <c r="G37" s="148">
         <v>6338479</v>
       </c>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>29983</v>
       </c>
-      <c r="E38" s="149">
+      <c r="E38" s="148">
         <v>61277</v>
       </c>
-      <c r="F38" s="149">
+      <c r="F38" s="148">
         <v>51229</v>
       </c>
-      <c r="G38" s="149">
+      <c r="G38" s="148">
         <v>23195</v>
       </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>29464</v>
       </c>
-      <c r="E39" s="149">
+      <c r="E39" s="148">
         <v>1195554</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="148">
         <v>2707794</v>
       </c>
-      <c r="G39" s="149">
+      <c r="G39" s="148">
         <v>1053656</v>
       </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>29983</v>
       </c>
-      <c r="E40" s="149">
+      <c r="E40" s="148">
         <v>61277</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="148">
         <v>51229</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="148">
         <v>23195</v>
       </c>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>8483231</v>
+      </c>
+      <c r="D41" s="148">
+        <v>9956528</v>
+      </c>
+      <c r="E41" s="148">
+        <v>9722107</v>
+      </c>
+      <c r="F41" s="148">
+        <v>-3323489</v>
+      </c>
+      <c r="G41" s="148">
+        <v>-2590443</v>
+      </c>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>8483231</v>
-      </c>
-      <c r="D41" s="149">
-        <v>9956528</v>
-      </c>
-      <c r="E41" s="149">
-        <v>9722107</v>
-      </c>
-      <c r="F41" s="149">
-        <v>-3323489</v>
-      </c>
-      <c r="G41" s="149">
-        <v>-2590443</v>
-      </c>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>-3429</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>9957299</v>
       </c>
-      <c r="E42" s="149">
+      <c r="E42" s="148">
         <v>9714578</v>
       </c>
-      <c r="F42" s="149">
+      <c r="F42" s="148">
         <v>-3329901</v>
       </c>
-      <c r="G42" s="149">
+      <c r="G42" s="148">
         <v>-2595281</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.1</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1745664287853802E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>6.2454190635309353E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>4923071</v>
@@ -3561,11 +3556,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>163001</v>
@@ -3573,11 +3568,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>2576350</v>
@@ -3586,11 +3581,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>924658</v>
@@ -3598,11 +3593,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>43659</v>
@@ -3610,11 +3605,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3623,11 +3618,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59">
         <v>17580</v>
@@ -3635,80 +3630,80 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>98517</v>
@@ -3717,11 +3712,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -3730,11 +3725,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3743,11 +3738,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59">
         <v>28511</v>
@@ -3755,11 +3750,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>232091</v>
@@ -3767,13 +3762,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -3781,13 +3776,13 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -3796,13 +3791,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>116537</v>
@@ -3811,11 +3806,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -3824,11 +3819,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>306071</v>
@@ -3836,11 +3831,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>88298</v>
@@ -3849,21 +3844,21 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>270468</v>
@@ -3871,7 +3866,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>18682</v>
@@ -3879,33 +3874,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>959583</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>74975</v>
@@ -3913,77 +3908,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214">
+        <v>262</v>
+      </c>
+      <c r="C82" s="212">
         <v>75530</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214">
+        <v>263</v>
+      </c>
+      <c r="C83" s="212">
         <v>8486660</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3992,166 +3987,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>867764</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>867764</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>867764</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>341249</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>341249</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>341249</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>711372</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>711372</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>711372</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>8305</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>8305</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>136</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>136</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>136</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2744</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>2744</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.1</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.1</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.1</v>
       </c>
@@ -4164,32 +4159,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4248,13 +4243,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4265,82 +4260,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>9959.HK : 聯易融科技－Ｗ</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>1.73</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>1.71</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>3953.0222300400001</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>3907.3225510799998</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4351,31 +4346,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0008</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4384,280 +4379,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>-2.2105398354594158E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.891610977707887</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>9.1167539227411831E-2</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43622986332241709</v>
+        <v>0.43128095039012582</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-25.169019561539475</v>
+        <v>-24.883483662065455</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>-1.5540778323012416</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1745664287853802E-2</v>
+        <v>6.2454190635309353E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.91938813081715942</v>
-      </c>
-      <c r="D29" s="128">
+        <v>0.92225837028880964</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>1.6543144449675782</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>1.6594790522311571</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0816330950790112</v>
-      </c>
-      <c r="G29" s="286">
+        <v>1.0850098473985996</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4385342999718072</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>1.443025262809702</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -4665,9 +4660,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4675,17 +4670,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>disagree</v>
       </c>
@@ -4693,26 +4688,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4720,9 +4715,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly disagree</v>
       </c>
@@ -4735,16 +4730,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -5696,10 +5691,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5725,59 +5720,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>-187601</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5785,19 +5780,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5846,928 +5841,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>867764</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>924200</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1198013</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1028541</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>699593</v>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-6.1064704609391951E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-0.22855595056147138</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.16476931887012758</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>0.47019910147757349</v>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>341249</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>149665</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>270763</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>398163</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>336621</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>526515</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>774535</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>927250</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>630378</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>362972</v>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>345571</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>398159</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>356401</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>124222</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>94347</v>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>365801</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>351118</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2744</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11196</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>1.52153213590132E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.47649649878590633</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.49211066938508041</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.38397325301997021</v>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-187601</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>14062</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>570849</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>506156</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>268625</v>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229" t="str">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.97536651548833408</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>0.12781237405068793</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.8842475570032573</v>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-252904</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>1593322</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>8305</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>30280</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>135144</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>140407</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>108297</v>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.15496494438580075</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>0.11368426747457261</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>134473</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>105067</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0.15480821974638265</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0.18409326985500973</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>134337</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>170139</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-196042</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1674612</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>435705</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>365749</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>160328</v>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-1.3589688379138714</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.27276728215804003</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.26669986903779236</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>0.17187993590559081</v>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-147031.5</v>
       </c>
@@ -6811,63 +6806,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.88293288236319811</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>0.19126778200350514</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>1.281254677910284</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6913,11 +6908,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6964,266 +6959,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>2576350</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>1035113</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>1937845</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>2024596</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>9408613</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="196">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>6338479</v>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>289150</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>29464</v>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>1195554</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>2707794</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="196">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>1053656</v>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>74975</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>29983</v>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>61277</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>51229</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="196">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>23195</v>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7270,165 +7265,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>8483231</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>9956528</v>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>9722107</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>-3323489</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="196">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>-2590443</v>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>-3429</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>9957299</v>
       </c>
-      <c r="E35" s="198">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>9714578</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>-3329901</v>
       </c>
-      <c r="G35" s="198">
+      <c r="G35" s="196">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>-2595281</v>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7474,63 +7469,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>-5.69117702378511E-2</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7543,372 +7538,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.16194005626487773</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.22601006833815659</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.38711436880007699</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.48116690704452447</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.81073036139363774</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.29749343287593705</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.12077496181484258</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.13485983993550535</v>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>1.7240012984202553</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>3.2763471110149316E-2</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>0.11280678924185297</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>0.13651084400135727</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>0.15480000514584907</v>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.2114260982471326E-2</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>7.0409002380437138E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-1.8119584505518287</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.36368970954405339</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.35559982538372314</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>0.22917324787412111</v>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7920,216 +7915,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>9.1167539227411831E-2</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>7.7700606833163877E-2</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>0.10198717035750372</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>0.16902547918497635</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="267">
         <f t="shared" si="41"/>
         <v>0.1866558912454416</v>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>2.9689523879764543</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>4.4812531008576082</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>-5.819015167285702</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8145,350 +8140,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.891610977707887</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>-6.4820566834418263E-5</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>6.4094580411201338E-4</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>1.0537172290983718E-3</v>
       </c>
-      <c r="G53" s="155">
+      <c r="G53" s="154">
         <f t="shared" si="45"/>
         <v>1.2908093732290726E-3</v>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-0.53839203570202543</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>-28.169831951149764</v>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>0.34666952040489135</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>0.13256467959853904</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="155">
         <f t="shared" si="46"/>
         <v>0.1488859647249248</v>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-4.2363371114353045E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-1.8081800440937962E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>0.31017316762488378</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>0.38388895116596355</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>0.67547153335661891</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>2.5207717968824418E-3</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>5.2165275652240467E-3</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>8.4187273751529131E-3</v>
+      </c>
+      <c r="G56" s="151">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v>6.1885744960827483E-3</v>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>-2.2105398354594151E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>-18.238651102464331</v>
       </c>
-      <c r="E58" s="271">
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
         <v>75.82002922034799</v>
       </c>
-      <c r="F58" s="271">
+      <c r="F58" s="269">
         <f t="shared" si="49"/>
         <v>78.938864628820966</v>
       </c>
-      <c r="G58" s="271">
+      <c r="G58" s="269">
         <f t="shared" si="49"/>
         <v>55.523976849937988</v>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>-2.3100018146125802E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>2172</v>
       </c>
-      <c r="E59" s="271">
+      <c r="E59" s="269">
         <f t="shared" si="50"/>
         <v>57.870235090981538</v>
       </c>
-      <c r="F59" s="271">
+      <c r="F59" s="269">
         <f t="shared" si="50"/>
         <v>57.04132875857767</v>
       </c>
-      <c r="G59" s="271">
+      <c r="G59" s="269">
         <f t="shared" si="50"/>
         <v>33.139313766019015</v>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9767,7 +9762,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9785,7 +9780,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9803,25 +9798,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>8483231</v>
       </c>
@@ -9829,12 +9824,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>8486660</v>
       </c>
@@ -9842,28 +9837,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>-3429</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9876,7 +9871,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>5850393.1500000004</v>
@@ -9885,16 +9880,16 @@
         <f>1-D6/D3</f>
         <v>0.31035791080073138</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>9.0125804646393277</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9902,297 +9897,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7349819776848467</v>
+        <v>2.7343845617665128</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>8.9487621185452433</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>4923071</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>4430763.9000000004</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>270468</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>163001</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>130400.8</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>18682</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>2576350</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>1545810</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>924658</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>554794.79999999993</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>43659</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>21829.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>289150</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>17580</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>1758</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10203,21 +10198,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10230,45 +10225,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10276,17 +10271,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10296,19 +10291,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.77578984940165918</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>6661769.5</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.99647176657880798</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10318,17 +10313,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.38517121442218194</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>23587.5</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>3.528233421192017E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10337,7 +10332,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10347,17 +10342,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10370,7 +10365,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10380,17 +10375,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10417,12 +10412,12 @@
         <f>SUM(E24:E27)</f>
         <v>6685357</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>959583</v>
       </c>
@@ -10432,171 +10427,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>98517</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>59110.2</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>74975</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>28511</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>11404.400000000001</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>74975</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>232091</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>23209.100000000002</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10604,25 +10599,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10630,26 +10625,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10657,113 +10652,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>116537</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>11653.7</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>306071</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>15303.550000000001</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>88298</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>79468.2</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10771,17 +10766,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10791,16 +10786,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>59110.2</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10810,16 +10805,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.13282131372744646</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>34613.5</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10829,14 +10824,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>11653.7</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10849,7 +10844,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10859,14 +10854,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.24031237242278172</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>94771.75</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10879,13 +10874,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>870025</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.23004988362403381</v>
       </c>
@@ -10893,12 +10888,12 @@
         <f>SUM(E30:E42)</f>
         <v>200149.15000000002</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>75530</v>
       </c>
@@ -10909,63 +10904,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>9518344</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.72339328668936531</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>6885506.1500000004</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>1035113</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10973,45 +10968,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11019,61 +11014,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11087,35 +11082,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>658943.59999999986</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>4923071</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>4430763.9000000004</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11129,29 +11124,29 @@
         <f>E61+E62</f>
         <v>5089707.5</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>364125</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11165,9 +11160,9 @@
         <f>E63-E64</f>
         <v>4725582.5</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11175,28 +11170,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11210,29 +11205,29 @@
         <f>E49-E63</f>
         <v>1795798.6500000004</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>670988</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11246,29 +11241,29 @@
         <f>E68-E69</f>
         <v>1124810.6500000004</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11278,66 +11273,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>867764</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>867764</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>867764</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>341249</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>341249</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.39325092997635303</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>341249</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.39325092997635303</v>
       </c>
@@ -11345,50 +11340,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>526515</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>526515</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>526515</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>711372</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>711372</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.81977588376563215</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>711372</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.81977588376563215</v>
       </c>
@@ -11396,60 +11391,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>2744</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>2744</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>2744</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>3.1621500776708874E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>-187601</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>-187601</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>-0.21618896381965605</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>-187601</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>-0.21618896381965605</v>
       </c>
@@ -11457,61 +11452,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>8305</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>8305</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>8305</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>9.5705744879944314E-3</v>
       </c>
@@ -11519,59 +11514,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>136</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>136</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>136</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>1.5672463941809065E-4</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>-196042</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>-196042</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>-0.22591626294706857</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>-196042</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>-0.22591626294706857</v>
       </c>
@@ -11579,184 +11574,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>-0.16943719721030143</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>-147031.5</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>-0.16943719721030143</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-6.4346841529759405E-2</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9731384750802526E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>-4.0187299076796343E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9731384750802526E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>-4.0187299076796343E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9731384750802526E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>-4.0187299076796343E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.1</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.1</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>-1.5540778323012416</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.1</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>-1.5540778323012416</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1745664287853802E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>6.2454190635309353E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1745664287853802E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.2454190635309353E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1745664287853802E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.2454190635309353E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11764,55 +11759,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84714469748117904</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>-0.84495097098400529</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84714469748117904</v>
+        <v>-0.84495097098400529</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1755505000250395</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>2.1823423550734509</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1755505000250395</v>
+        <v>2.1823423550734509</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11822,123 +11817,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-962390.99022674747</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>-959898.82729144371</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42118063501895003</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>-0.42008996524094783</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42118063501895003</v>
-      </c>
-      <c r="I97" s="122">
+        <v>-0.42008996524094783</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.5601555580308939</v>
+        <v>-0.5587050052577428</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="91">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5047867.1895453334</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>5046764.5584357772</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8777756031367683</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>1.8773654311336154</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.209147768396198</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>2.2086652130983713</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4085476.1993185859</v>
-      </c>
-      <c r="D100" s="109">
+        <v>4086865.7311443333</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.378938893135403</v>
-      </c>
-      <c r="E100" s="109">
+        <v>1.3794865533437886</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4565949681178183</v>
-      </c>
-      <c r="F100" s="109">
+        <v>1.4572754658926677</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.6222810507475329</v>
-      </c>
-      <c r="H100" s="109">
+        <v>1.6229253568750455</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7879671333772476</v>
-      </c>
-      <c r="I100" s="109">
+        <v>1.7885752478574233</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6489922103653041</v>
+        <v>1.6499602078406284</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11948,58 +11943,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2471514.2598810983</v>
-      </c>
-      <c r="D103" s="109">
+        <v>2479230.0847277297</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.91938813081715942</v>
-      </c>
-      <c r="E103" s="122">
+        <v>0.92225837028880964</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0816330950790112</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.0850098473985996</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.0816330950790112</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.0850098473985996</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0816330950790112</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.0850098473985996</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4385342999718072</v>
+        <v>1.443025262809702</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12009,58 +12004,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2899905.1903839423</v>
-      </c>
-      <c r="D106" s="109">
+        <v>2904540.5660533486</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.1491635119762811</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.1508724618162991</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2691140315984146</v>
-      </c>
-      <c r="F106" s="109">
+        <v>1.2711426566456336</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.3519570729132719</v>
-      </c>
-      <c r="H106" s="122">
+        <v>1.3539676021368225</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.4348001142281293</v>
-      </c>
-      <c r="I106" s="122">
+        <v>1.4367925476280115</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.5437632551685556</v>
+        <v>1.5464927353251652</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12069,15 +12064,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE57DE2-ED73-40A8-AA20-70D0A8C8C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8B4CCA-10E7-4EB0-8CB5-EDBE8A038993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3488,7 +3505,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2454190635309353E-2</v>
+        <v>6.2419241167183746E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3959,7 +3976,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3969,11 +3986,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3987,10 +4004,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4212,8 +4229,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4226,8 +4246,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4270,11 +4290,11 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4283,47 +4303,47 @@
         <v>1.71</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
         <v>3907.3225510799998</v>
       </c>
-      <c r="H5" s="286"/>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4346,11 +4366,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4370,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4491,7 +4511,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>-2.2105398354594158E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4503,20 +4523,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.891610977707887</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>-0.21618896381965605</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>9.1167539227411831E-2</v>
       </c>
@@ -4525,26 +4545,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>-0.21618896381965605</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.1215653743640019</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43128095039012582</v>
+        <v>0.43152243105453292</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>9.5705744879944314E-3</v>
       </c>
@@ -4553,7 +4573,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.883483662065455</v>
+        <v>-24.897416297304837</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4585,7 +4605,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2454190635309353E-2</v>
+        <v>6.2419241167183746E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4604,10 +4624,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4615,22 +4635,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.92225837028880964</v>
+        <v>0.92159067923368776</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>1.6594790522311571</v>
+        <v>1.6582776325910296</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0850098473985996</v>
-      </c>
-      <c r="G29" s="285">
+        <v>1.0842243285102209</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.443025262809702</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>1.4419805500791563</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5661,7 +5681,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7902,7 +7922,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9829,7 +9849,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>8486660</v>
       </c>
@@ -9900,7 +9920,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7343845617665128</v>
+        <v>2.7328543956541598</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10876,7 +10896,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>870025</v>
       </c>
@@ -10893,7 +10913,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>75530</v>
       </c>
@@ -11002,11 +11022,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11017,11 +11037,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11033,11 +11053,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11251,19 +11271,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11273,18 +11293,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11651,17 +11671,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0187299076796343E-2</v>
+        <v>-4.0164810197926074E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0187299076796343E-2</v>
+        <v>-4.0164810197926074E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0187299076796343E-2</v>
+        <v>-4.0164810197926074E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11702,17 +11722,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2454190635309353E-2</v>
+        <v>6.2419241167183746E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2454190635309353E-2</v>
+        <v>6.2419241167183746E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2454190635309353E-2</v>
+        <v>6.2419241167183746E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11743,15 +11763,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11772,14 +11792,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84495097098400529</v>
+        <v>-0.84457707233191004</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84495097098400529</v>
+        <v>-0.84457707233191004</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11800,14 +11820,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1823423550734509</v>
+        <v>2.1807623960113931</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1823423550734509</v>
+        <v>2.1807623960113931</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11850,21 +11870,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-959898.82729144371</v>
+        <v>-959474.06314536056</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.42008996524094783</v>
+        <v>-0.41990407152976666</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.42008996524094783</v>
+        <v>-0.41990407152976666</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.5587050052577428</v>
+        <v>-0.55845777310397482</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11892,17 +11912,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5046764.5584357772</v>
+        <v>5043940.3806619849</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8773654311336154</v>
+        <v>1.8763148543408004</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2086652130983713</v>
+        <v>2.2074292404009417</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11913,27 +11933,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4086865.7311443333</v>
+        <v>4084466.3175166245</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3794865533437886</v>
+        <v>1.3786727794649387</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4572754658926677</v>
+        <v>1.4564107828110338</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.6229253568750455</v>
+        <v>1.6219679758411045</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7885752478574233</v>
+        <v>1.7875251688711751</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6499602078406284</v>
+        <v>1.6489714672969669</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11974,27 +11994,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2479230.0847277297</v>
+        <v>2477435.1866769334</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.92225837028880964</v>
+        <v>0.92159067923368776</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0850098473985996</v>
+        <v>1.0842243285102209</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.0850098473985996</v>
+        <v>1.0842243285102209</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0850098473985996</v>
+        <v>1.0842243285102209</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.443025262809702</v>
+        <v>1.4419805500791563</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12035,27 +12055,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2904540.5660533486</v>
+        <v>2902655.2235471294</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.1508724618162991</v>
+        <v>1.1501317293493132</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2711426566456336</v>
+        <v>1.2703175556606272</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.3539676021368225</v>
+        <v>1.3530961521756626</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.4367925476280115</v>
+        <v>1.435874748690698</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.5464927353251652</v>
+        <v>1.5454760086880617</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8B4CCA-10E7-4EB0-8CB5-EDBE8A038993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8321C3D-7927-49BC-A51F-608BDDB62F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2419241167183746E-2</v>
+        <v>6.3812656554871228E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>3907.3225510799998</v>
+        <v>3815.9231931599998</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4390,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43152243105453292</v>
+        <v>0.42209969224335903</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-24.897416297304837</v>
+        <v>-24.353755449201856</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2419241167183746E-2</v>
+        <v>6.3812656554871228E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4635,20 +4635,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.92159067923368776</v>
+        <v>0.92617467632809169</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>1.6582776325910296</v>
+        <v>1.6665259146329372</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0842243285102209</v>
+        <v>1.0896172662683432</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4419805500791563</v>
+        <v>1.4491529692460325</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9800,7 +9800,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9920,7 +9920,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7328543956541598</v>
+        <v>2.7285077675412555</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11671,17 +11671,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0164810197926074E-2</v>
+        <v>-4.1061428989292617E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0164810197926074E-2</v>
+        <v>-4.1061428989292617E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.0164810197926074E-2</v>
+        <v>-4.1061428989292617E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11722,17 +11722,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2419241167183746E-2</v>
+        <v>6.3812656554871228E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2419241167183746E-2</v>
+        <v>6.3812656554871228E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2419241167183746E-2</v>
+        <v>6.3812656554871228E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11792,14 +11792,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84457707233191004</v>
+        <v>-0.83930263195032484</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.84457707233191004</v>
+        <v>-0.83930263195032484</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11820,14 +11820,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1807623960113931</v>
+        <v>2.1916095201329329</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1807623960113931</v>
+        <v>2.1916095201329329</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11870,21 +11870,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-959474.06314536056</v>
+        <v>-953482.08336101158</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.41990407152976666</v>
+        <v>-0.41728174248032468</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.41990407152976666</v>
+        <v>-0.41728174248032468</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.55845777310397482</v>
+        <v>-0.55497016690867884</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11911,18 +11911,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5043940.3806619849</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>5035917.9506733026</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8763148543408004</v>
+        <v>1.8733305596387093</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2074292404009417</v>
+        <v>2.203918305457305</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11933,27 +11933,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>4084466.3175166245</v>
+        <v>4082435.8673122912</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3786727794649387</v>
+        <v>1.37814128655753</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4564107828110338</v>
+        <v>1.4560488171583845</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.6219679758411045</v>
+        <v>1.6213426900676824</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7875251688711751</v>
+        <v>1.7866365629769803</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6489714672969669</v>
+        <v>1.6489481385486262</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11994,27 +11994,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2477435.1866769334</v>
+        <v>2489757.9628868061</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.92159067923368776</v>
+        <v>0.92617467632809169</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0842243285102209</v>
+        <v>1.0896172662683432</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.0842243285102209</v>
+        <v>1.0896172662683432</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0842243285102209</v>
+        <v>1.0896172662683432</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4419805500791563</v>
+        <v>1.4491529692460325</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12055,27 +12055,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2902655.2235471294</v>
+        <v>2908403.068799051</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.1501317293493132</v>
+        <v>1.1521579814428109</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2703175556606272</v>
+        <v>1.2728330417133638</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.3530961521756626</v>
+        <v>1.3554799781680127</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.435874748690698</v>
+        <v>1.4381269146226616</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.5454760086880617</v>
+        <v>1.5490505538973294</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1577C4CD-73B7-4FE4-B7DE-433A9F65F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1BFBFC-303B-4EBA-A059-4CD1971D7EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6291164754770008E-2</v>
+        <v>5.5991386112413916E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>4318.6196617199994</v>
+        <v>4341.4695012000002</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4603,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4734,7 +4734,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47849965106220094</v>
+        <v>0.48106154469839879</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.607846436852274</v>
+        <v>-27.755659221958169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6291164754770008E-2</v>
+        <v>5.5991386112413916E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4853,20 +4853,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0577730620563899</v>
+        <v>0.891087885203523</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.6981481257750803</v>
+        <v>1.6033919851864651</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2444388965369293</v>
+        <v>1.048338688474733</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4766505441522439</v>
+        <v>1.3942539001621437</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10125,7 +10125,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.723980144380886</v>
+        <v>2.7238094250499998</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2002611740090985</v>
+        <v>2.2001232775871378</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>2.3219108854263384</v>
+        <v>2.406573904642161</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>1.5266940974283483</v>
+        <v>1.1964925571640477</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11903,17 +11903,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6221586580007639E-2</v>
+        <v>-3.6028688492070693E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6221586580007639E-2</v>
+        <v>-3.6028688492070693E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6221586580007639E-2</v>
+        <v>-3.6028688492070693E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11954,17 +11954,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6291164754770008E-2</v>
+        <v>5.5991386112413916E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6291164754770008E-2</v>
+        <v>5.5991386112413916E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6291164754770008E-2</v>
+        <v>5.5991386112413916E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12017,21 +12017,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.92507080588463186</v>
+        <v>-0.86007577913486</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.92507080588463186</v>
+        <v>-0.86007577913486</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12052,14 +12052,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.8926360067706018</v>
+        <v>2.1085835559979769</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>1.8926360067706018</v>
+        <v>2.1085835559979769</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12102,21 +12102,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1389839.3636622396</v>
+        <v>-977081.22734254482</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.60824907101808645</v>
+        <v>-0.4276096679794027</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.60824907101808645</v>
+        <v>-0.4276096679794027</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.72174802973325458</v>
+        <v>-0.56870594768828964</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>5027561.464018425</v>
+        <v>5027246.3729077578</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>1.5266940974283483</v>
+        <v>1.1964925571640477</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>1.5266940974283483</v>
+        <v>1.1964925571640477</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12166,23 +12166,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.78067827244872257</v>
+        <v>0.65355045580694826</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.91844502641026182</v>
+        <v>0.76888288918464498</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.91844502641026182</v>
+        <v>0.76888288918464498</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.91844502641026182</v>
+        <v>0.76888288918464498</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.80494606769509369</v>
+        <v>0.62778660947575804</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12221,23 +12221,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0577730620563899</v>
+        <v>0.891087885203523</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2444388965369293</v>
+        <v>1.048338688474733</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.2444388965369293</v>
+        <v>1.048338688474733</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2444388965369293</v>
+        <v>1.048338688474733</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4766505441522439</v>
+        <v>1.3942539001621437</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12276,23 +12276,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.91922566725255628</v>
+        <v>0.77231917050523569</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.0814419614735955</v>
+        <v>0.90861078882968904</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.0814419614735955</v>
+        <v>0.90861078882968904</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.0814419614735955</v>
+        <v>0.90861078882968904</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.1407983059236688</v>
+        <v>1.0110202548189509</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1BFBFC-303B-4EBA-A059-4CD1971D7EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7906C6-C6CE-43FE-A69B-6468191399A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4418,7 +4419,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4441,6 +4442,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4459,8 +4463,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4496,18 +4500,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4523,7 +4530,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
@@ -4552,11 +4559,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>4341.4695012000002</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4579,11 +4586,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4651,10 +4658,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4701,7 +4708,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4842,10 +4849,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4853,22 +4860,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.891087885203523</v>
+        <v>0.97577805611129564</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.6033919851864651</v>
+        <v>1.8029982596542329</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.048338688474733</v>
-      </c>
-      <c r="G29" s="312">
+        <v>1.1479741836603479</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.3942539001621437</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>1.5678245736123766</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5850,15 +5857,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5886,7 +5894,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -12013,7 +12021,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12024,14 +12032,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.86007577913486</v>
+        <v>-0.94181851847412357</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.86007577913486</v>
+        <v>-0.94181851847412357</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12052,14 +12060,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1085835559979769</v>
+        <v>2.3089861253696848</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1085835559979769</v>
+        <v>2.3089861253696848</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12102,21 +12110,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-977081.22734254482</v>
+        <v>-1069944.3191974147</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.4276096679794027</v>
+        <v>-0.46825025625843686</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.4276096679794027</v>
+        <v>-0.46825025625843686</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.56870594768828964</v>
+        <v>-0.63950415332639465</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12166,23 +12174,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.65355045580694826</v>
+        <v>0.61900595576976913</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.76888288918464498</v>
+        <v>0.72824230090561082</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.76888288918464498</v>
+        <v>0.72824230090561082</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.76888288918464498</v>
+        <v>0.72824230090561082</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.62778660947575804</v>
+        <v>0.55698840383765302</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12221,23 +12229,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.891087885203523</v>
+        <v>0.97577805611129564</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.048338688474733</v>
+        <v>1.1479741836603479</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.048338688474733</v>
+        <v>1.1479741836603479</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.048338688474733</v>
+        <v>1.1479741836603479</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.3942539001621437</v>
+        <v>1.5678245736123766</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12276,23 +12284,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.77231917050523569</v>
+        <v>0.79739200594053239</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.90861078882968904</v>
+        <v>0.9381082422829794</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.90861078882968904</v>
+        <v>0.9381082422829794</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.90861078882968904</v>
+        <v>0.9381082422829794</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.0110202548189509</v>
+        <v>1.0624064887250149</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7906C6-C6CE-43FE-A69B-6468191399A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C6CAAA-DE33-44DD-993E-F0F77F23B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5991386112413916E-2</v>
+        <v>5.6287636832585419E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4500,27 +4500,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4530,40 +4530,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>4341.4695012000002</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>4318.6196617199994</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4586,11 +4586,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.48106154469839879</v>
+        <v>0.47852964183156516</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.755659221958169</v>
+        <v>-27.609576805000493</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5991386112413916E-2</v>
+        <v>5.6287636832585419E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4849,10 +4849,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4860,22 +4860,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.97577805611129564</v>
+        <v>1.0638387278420782</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.8029982596542329</v>
+        <v>1.8469153357404751</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1479741836603479</v>
-      </c>
-      <c r="G29" s="313">
+        <v>1.2515749739318567</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5678245736123766</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>1.6060133354265003</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5858,15 +5858,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11239,7 +11239,7 @@
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11250,11 +11250,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11266,11 +11266,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>2.406573904642161</v>
+        <v>2.3637893179866034</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>1.1964925571640477</v>
+        <v>1.3515042144569833</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11911,17 +11911,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6028688492070693E-2</v>
+        <v>-3.6219316473510219E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6028688492070693E-2</v>
+        <v>-3.6219316473510219E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6028688492070693E-2</v>
+        <v>-3.6219316473510219E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11962,17 +11962,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5991386112413916E-2</v>
+        <v>5.6287636832585419E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5991386112413916E-2</v>
+        <v>5.6287636832585419E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5991386112413916E-2</v>
+        <v>5.6287636832585419E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12025,21 +12025,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94181851847412357</v>
+        <v>-0.97624663656827781</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.94181851847412357</v>
+        <v>-0.97624663656827781</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12060,14 +12060,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3089861253696848</v>
+        <v>2.1890124517504037</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3089861253696848</v>
+        <v>2.1890124517504037</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12110,21 +12110,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1069944.3191974147</v>
+        <v>-1275414.4782773105</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.46825025625843686</v>
+        <v>-0.5581721829571954</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.46825025625843686</v>
+        <v>-0.5581721829571954</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.63950415332639465</v>
+        <v>-0.71624312403531909</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12157,12 +12157,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>1.1964925571640477</v>
+        <v>1.3515042144569833</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>1.1964925571640477</v>
+        <v>1.3515042144569833</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12174,23 +12174,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.61900595576976913</v>
+        <v>0.67433222677481974</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.72824230090561082</v>
+        <v>0.79333203149978793</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.72824230090561082</v>
+        <v>0.79333203149978793</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.72824230090561082</v>
+        <v>0.79333203149978793</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.55698840383765302</v>
+        <v>0.63526109042166423</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12229,23 +12229,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.97577805611129564</v>
+        <v>1.0638387278420782</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1479741836603479</v>
+        <v>1.2515749739318567</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.1479741836603479</v>
+        <v>1.2515749739318567</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1479741836603479</v>
+        <v>1.2515749739318567</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5678245736123766</v>
+        <v>1.6060133354265003</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12284,23 +12284,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.79739200594053239</v>
+        <v>0.86908547730844898</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.9381082422829794</v>
+        <v>1.0224535027158224</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.9381082422829794</v>
+        <v>1.0224535027158224</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.9381082422829794</v>
+        <v>1.0224535027158224</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.0624064887250149</v>
+        <v>1.1206372129240822</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEE319C-0A04-42CD-8BBD-84098DF6AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FA3A2D-87D3-4313-BD6A-CFF0F1BB825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6285874973949719E-2</v>
+        <v>6.6943878397751649E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4520,27 +4520,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4550,7 +4550,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
@@ -4579,11 +4579,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>4318.6196617199994</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>3633.1244773200001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4606,11 +4606,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4630,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47854462075091719</v>
+        <v>0.40235647138644043</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-27.610441039079539</v>
+        <v>-23.214636939132529</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6285874973949719E-2</v>
+        <v>6.6943878397751649E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4869,10 +4869,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4880,22 +4880,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0726633171565403</v>
+        <v>1.1172506392767434</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.8656865601600439</v>
+        <v>1.9432374247255462</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2619568437135769</v>
-      </c>
-      <c r="G29" s="313">
+        <v>1.3144125167961687</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.6223361392696034</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>1.6897716736743882</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5878,15 +5878,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10255,7 +10255,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7237241671243244</v>
+        <v>2.7252722394358648</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2000544115551928</v>
+        <v>2.2013048477629118</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>2.363715329045919</v>
+        <v>2.3650587845607713</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>1.351461911040009</v>
+        <v>1.3522300360909356</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12033,17 +12033,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6218182773125933E-2</v>
+        <v>-4.307627134647609E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6218182773125933E-2</v>
+        <v>-4.307627134647609E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.6218182773125933E-2</v>
+        <v>-4.307627134647609E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12084,17 +12084,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6285874973949719E-2</v>
+        <v>6.6943878397751649E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6285874973949719E-2</v>
+        <v>6.6943878397751649E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6285874973949719E-2</v>
+        <v>6.6943878397751649E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12154,14 +12154,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.98435584467515791</v>
+        <v>-0.95717924557002765</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.98435584467515791</v>
+        <v>-0.95717924557002765</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12182,14 +12182,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.2071704068853184</v>
+        <v>2.2989157069547281</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.2071704068853184</v>
+        <v>2.2989157069547281</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12232,21 +12232,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1286008.7287868285</v>
+        <v>-1250503.9427310589</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.56280864901149341</v>
+        <v>-0.54727034026895438</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.56280864901149341</v>
+        <v>-0.54727034026895438</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.72353093161090976</v>
+        <v>-0.70355531997115761</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>5027089.0151302014</v>
+        <v>5029946.2417928372</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>1.351461911040009</v>
+        <v>1.3522300360909356</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>1.351461911040009</v>
+        <v>1.3522300360909356</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12296,23 +12296,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.67035527272423823</v>
+        <v>0.68421574144868402</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.7886532620285156</v>
+        <v>0.80495969582198124</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.7886532620285156</v>
+        <v>0.80495969582198124</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.7886532620285156</v>
+        <v>0.80495969582198124</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.62793097942909926</v>
+        <v>0.64867471611977801</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12351,23 +12351,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0726633171565403</v>
+        <v>1.1172506392767434</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2619568437135769</v>
+        <v>1.3144125167961687</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.2619568437135769</v>
+        <v>1.3144125167961687</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2619568437135769</v>
+        <v>1.3144125167961687</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6223361392696034</v>
+        <v>1.6897716736743882</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12406,23 +12406,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.87150929494038931</v>
+        <v>0.90073319036271371</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.0253050528710461</v>
+        <v>1.059686106309075</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.0253050528710461</v>
+        <v>1.059686106309075</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.0253050528710461</v>
+        <v>1.059686106309075</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.1251335593493512</v>
+        <v>1.169223194897083</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FA3A2D-87D3-4313-BD6A-CFF0F1BB825B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB63F295-3A55-4944-9E1C-DB4574095683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6943878397751649E-2</v>
+        <v>7.5279834986296673E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4520,27 +4520,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>9959.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4550,40 +4550,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>聯易融科技－Ｗ</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>2284983948</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>3633.1244773200001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>3221.8273666799996</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4606,11 +4606,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4630,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.40235647138644043</v>
+        <v>0.35780236099010304</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-23.214636939132529</v>
+        <v>-20.644012205713967</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6943878397751649E-2</v>
+        <v>7.5279834986296673E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4869,10 +4869,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4880,22 +4880,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1172506392767434</v>
+        <v>1.1493706178402849</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.9432374247255462</v>
+        <v>1.9991038008383066</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3144125167961687</v>
-      </c>
-      <c r="G29" s="314">
+        <v>1.3522007268709235</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.6897716736743882</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>1.738351131163745</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5878,15 +5878,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10255,7 +10255,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7252722394358648</v>
+        <v>2.717688455381281</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11361,7 +11361,7 @@
         <f>I15+I34</f>
         <v>364125</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11372,11 +11372,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11388,11 +11388,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2013048477629118</v>
+        <v>2.1951791402603109</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>2.3650587845607713</v>
+        <v>2.358477388823875</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>1.3522300360909356</v>
+        <v>1.3484671017178331</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12033,17 +12033,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.307627134647609E-2</v>
+        <v>-4.8440196122496691E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.307627134647609E-2</v>
+        <v>-4.8440196122496691E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.307627134647609E-2</v>
+        <v>-4.8440196122496691E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12084,17 +12084,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6943878397751649E-2</v>
+        <v>7.5279834986296673E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6943878397751649E-2</v>
+        <v>7.5279834986296673E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6943878397751649E-2</v>
+        <v>7.5279834986296673E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12154,14 +12154,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.95717924557002765</v>
+        <v>-0.93329321304953528</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-0.95717924557002765</v>
+        <v>-0.93329321304953528</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12182,14 +12182,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.2989157069547281</v>
+        <v>2.3650075225517875</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.2989157069547281</v>
+        <v>2.3650075225517875</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12232,21 +12232,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1250503.9427310589</v>
+        <v>-1219298.1074799092</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.54727034026895438</v>
+        <v>-0.53361342365102216</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.54727034026895438</v>
+        <v>-0.53361342365102216</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.70355531997115761</v>
+        <v>-0.68599837300372879</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>5029946.2417928372</v>
+        <v>5015949.0984792504</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>1.3522300360909356</v>
+        <v>1.3484671017178331</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>1.3522300360909356</v>
+        <v>1.3484671017178331</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12296,23 +12296,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.68421574144868402</v>
+        <v>0.69262562635678926</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.80495969582198124</v>
+        <v>0.81485367806681097</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>0.80495969582198124</v>
+        <v>0.81485367806681097</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.80495969582198124</v>
+        <v>0.81485367806681097</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.64867471611977801</v>
+        <v>0.66246872871410434</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12351,23 +12351,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1172506392767434</v>
+        <v>1.1493706178402849</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3144125167961687</v>
+        <v>1.3522007268709235</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.3144125167961687</v>
+        <v>1.3522007268709235</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3144125167961687</v>
+        <v>1.3522007268709235</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6897716736743882</v>
+        <v>1.738351131163745</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12406,23 +12406,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.90073319036271371</v>
+        <v>0.92099812209853704</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.059686106309075</v>
+        <v>1.0835272024688671</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.059686106309075</v>
+        <v>1.0835272024688671</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.059686106309075</v>
+        <v>1.0835272024688671</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.169223194897083</v>
+        <v>1.2004099299389246</v>
       </c>
       <c r="K106" s="75"/>
     </row>
